--- a/raw_data/20200818_saline/20200818_Sensor1_Test_85.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor1_Test_85.xlsx
@@ -1,810 +1,1226 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B143E0-F221-493F-B6B5-5B75565C6C56}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>75787.165326</v>
+        <v>75787.165326000002</v>
       </c>
       <c r="B2" s="1">
-        <v>21.051990</v>
+        <v>21.05199</v>
       </c>
       <c r="C2" s="1">
-        <v>902.146000</v>
+        <v>902.14599999999996</v>
       </c>
       <c r="D2" s="1">
-        <v>-197.542000</v>
+        <v>-197.542</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
-        <v>75797.585808</v>
+        <v>75797.585808000003</v>
       </c>
       <c r="G2" s="1">
-        <v>21.054885</v>
+        <v>21.054884999999999</v>
       </c>
       <c r="H2" s="1">
-        <v>919.752000</v>
+        <v>919.75199999999995</v>
       </c>
       <c r="I2" s="1">
-        <v>-167.856000</v>
+        <v>-167.85599999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>75808.066738</v>
+        <v>75808.066737999994</v>
       </c>
       <c r="L2" s="1">
         <v>21.057796</v>
       </c>
       <c r="M2" s="1">
-        <v>944.488000</v>
+        <v>944.48800000000006</v>
       </c>
       <c r="N2" s="1">
-        <v>-120.424000</v>
+        <v>-120.42400000000001</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>75818.563571</v>
+        <v>75818.563571000006</v>
       </c>
       <c r="Q2" s="1">
-        <v>21.060712</v>
+        <v>21.060711999999999</v>
       </c>
       <c r="R2" s="1">
-        <v>951.711000</v>
+        <v>951.71100000000001</v>
       </c>
       <c r="S2" s="1">
-        <v>-104.342000</v>
+        <v>-104.342</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>75829.803909</v>
+        <v>75829.803908999995</v>
       </c>
       <c r="V2" s="1">
         <v>21.063834</v>
       </c>
       <c r="W2" s="1">
-        <v>958.799000</v>
+        <v>958.79899999999998</v>
       </c>
       <c r="X2" s="1">
-        <v>-89.346400</v>
+        <v>-89.346400000000003</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>75840.259574</v>
+        <v>75840.259573999996</v>
       </c>
       <c r="AA2" s="1">
-        <v>21.066739</v>
+        <v>21.066738999999998</v>
       </c>
       <c r="AB2" s="1">
-        <v>966.290000</v>
+        <v>966.29</v>
       </c>
       <c r="AC2" s="1">
-        <v>-77.623600</v>
+        <v>-77.623599999999996</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
-        <v>75850.630425</v>
+        <v>75850.630424999996</v>
       </c>
       <c r="AF2" s="1">
-        <v>21.069620</v>
+        <v>21.06962</v>
       </c>
       <c r="AG2" s="1">
-        <v>971.263000</v>
+        <v>971.26300000000003</v>
       </c>
       <c r="AH2" s="1">
-        <v>-75.215200</v>
+        <v>-75.215199999999996</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>75860.415005</v>
+        <v>75860.415005000003</v>
       </c>
       <c r="AK2" s="1">
-        <v>21.072338</v>
+        <v>21.072337999999998</v>
       </c>
       <c r="AL2" s="1">
-        <v>978.664000</v>
+        <v>978.66399999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-79.642600</v>
+        <v>-79.642600000000002</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
         <v>75870.675248</v>
       </c>
       <c r="AP2" s="1">
-        <v>21.075188</v>
+        <v>21.075188000000001</v>
       </c>
       <c r="AQ2" s="1">
-        <v>986.842000</v>
+        <v>986.84199999999998</v>
       </c>
       <c r="AR2" s="1">
-        <v>-90.882200</v>
+        <v>-90.882199999999997</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>75881.274754</v>
+        <v>75881.274753999998</v>
       </c>
       <c r="AU2" s="1">
         <v>21.078132</v>
       </c>
       <c r="AV2" s="1">
-        <v>996.724000</v>
+        <v>996.72400000000005</v>
       </c>
       <c r="AW2" s="1">
-        <v>-108.215000</v>
+        <v>-108.215</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>75892.014130</v>
+        <v>75892.014129999996</v>
       </c>
       <c r="AZ2" s="1">
         <v>21.081115</v>
       </c>
       <c r="BA2" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB2" s="1">
-        <v>-123.634000</v>
+        <v>-123.634</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>75903.256453</v>
+        <v>75903.256452999995</v>
       </c>
       <c r="BE2" s="1">
-        <v>21.084238</v>
+        <v>21.084237999999999</v>
       </c>
       <c r="BF2" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG2" s="1">
-        <v>-194.475000</v>
+        <v>-194.47499999999999</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>75914.299418</v>
+        <v>75914.299417999995</v>
       </c>
       <c r="BJ2" s="1">
-        <v>21.087305</v>
+        <v>21.087305000000001</v>
       </c>
       <c r="BK2" s="1">
-        <v>1110.430000</v>
+        <v>1110.43</v>
       </c>
       <c r="BL2" s="1">
-        <v>-308.941000</v>
+        <v>-308.94099999999997</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
-        <v>75925.688518</v>
+        <v>75925.688517999995</v>
       </c>
       <c r="BO2" s="1">
-        <v>21.090469</v>
+        <v>21.090468999999999</v>
       </c>
       <c r="BP2" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-488.239000</v>
+        <v>-488.23899999999998</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
-        <v>75936.836599</v>
+        <v>75936.836599000002</v>
       </c>
       <c r="BT2" s="1">
-        <v>21.093566</v>
+        <v>21.093565999999999</v>
       </c>
       <c r="BU2" s="1">
-        <v>1338.860000</v>
+        <v>1338.86</v>
       </c>
       <c r="BV2" s="1">
-        <v>-684.191000</v>
+        <v>-684.19100000000003</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>75947.962148</v>
+        <v>75947.962148000006</v>
       </c>
       <c r="BY2" s="1">
-        <v>21.096656</v>
+        <v>21.096655999999999</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA2" s="1">
-        <v>-892.112000</v>
+        <v>-892.11199999999997</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>75958.820319</v>
+        <v>75958.820319000006</v>
       </c>
       <c r="CD2" s="1">
-        <v>21.099672</v>
+        <v>21.099672000000002</v>
       </c>
       <c r="CE2" s="1">
-        <v>1821.540000</v>
+        <v>1821.54</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1384.920000</v>
+        <v>-1384.92</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>75787.554188</v>
+        <v>75787.554187999995</v>
       </c>
       <c r="B3" s="1">
-        <v>21.052098</v>
+        <v>21.052098000000001</v>
       </c>
       <c r="C3" s="1">
-        <v>902.282000</v>
+        <v>902.28200000000004</v>
       </c>
       <c r="D3" s="1">
-        <v>-197.429000</v>
+        <v>-197.429</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>75797.954834</v>
+        <v>75797.954834000004</v>
       </c>
       <c r="G3" s="1">
-        <v>21.054987</v>
+        <v>21.054987000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>920.032000</v>
+        <v>920.03200000000004</v>
       </c>
       <c r="I3" s="1">
-        <v>-168.202000</v>
+        <v>-168.202</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
         <v>75808.761176</v>
       </c>
       <c r="L3" s="1">
-        <v>21.057989</v>
+        <v>21.057988999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>944.420000</v>
+        <v>944.42</v>
       </c>
       <c r="N3" s="1">
-        <v>-120.392000</v>
+        <v>-120.392</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>75819.270866</v>
+        <v>75819.270866000006</v>
       </c>
       <c r="Q3" s="1">
-        <v>21.060909</v>
+        <v>21.060908999999999</v>
       </c>
       <c r="R3" s="1">
-        <v>951.669000</v>
+        <v>951.66899999999998</v>
       </c>
       <c r="S3" s="1">
-        <v>-104.360000</v>
+        <v>-104.36</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>75830.185828</v>
+        <v>75830.185828000001</v>
       </c>
       <c r="V3" s="1">
         <v>21.063941</v>
       </c>
       <c r="W3" s="1">
-        <v>958.798000</v>
+        <v>958.798</v>
       </c>
       <c r="X3" s="1">
-        <v>-89.409500</v>
+        <v>-89.409499999999994</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
         <v>75840.689606</v>
@@ -813,739 +1229,739 @@
         <v>21.066858</v>
       </c>
       <c r="AB3" s="1">
-        <v>966.347000</v>
+        <v>966.34699999999998</v>
       </c>
       <c r="AC3" s="1">
-        <v>-77.509900</v>
+        <v>-77.509900000000002</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>75850.978617</v>
+        <v>75850.978617000001</v>
       </c>
       <c r="AF3" s="1">
         <v>21.069716</v>
       </c>
       <c r="AG3" s="1">
-        <v>971.248000</v>
+        <v>971.24800000000005</v>
       </c>
       <c r="AH3" s="1">
-        <v>-75.187700</v>
+        <v>-75.187700000000007</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>75860.796427</v>
+        <v>75860.796426999994</v>
       </c>
       <c r="AK3" s="1">
         <v>21.072443</v>
       </c>
       <c r="AL3" s="1">
-        <v>978.647000</v>
+        <v>978.64700000000005</v>
       </c>
       <c r="AM3" s="1">
-        <v>-79.624800</v>
+        <v>-79.624799999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
         <v>75871.064111</v>
       </c>
       <c r="AP3" s="1">
-        <v>21.075296</v>
+        <v>21.075296000000002</v>
       </c>
       <c r="AQ3" s="1">
-        <v>986.844000</v>
+        <v>986.84400000000005</v>
       </c>
       <c r="AR3" s="1">
-        <v>-90.887300</v>
+        <v>-90.887299999999996</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
         <v>75881.693904</v>
       </c>
       <c r="AU3" s="1">
-        <v>21.078248</v>
+        <v>21.078247999999999</v>
       </c>
       <c r="AV3" s="1">
-        <v>996.721000</v>
+        <v>996.721</v>
       </c>
       <c r="AW3" s="1">
-        <v>-108.202000</v>
+        <v>-108.202</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>75892.731842</v>
+        <v>75892.731841999994</v>
       </c>
       <c r="AZ3" s="1">
-        <v>21.081314</v>
+        <v>21.081313999999999</v>
       </c>
       <c r="BA3" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB3" s="1">
-        <v>-123.646000</v>
+        <v>-123.646</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>75903.684996</v>
+        <v>75903.684995999996</v>
       </c>
       <c r="BE3" s="1">
-        <v>21.084357</v>
+        <v>21.084357000000001</v>
       </c>
       <c r="BF3" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG3" s="1">
-        <v>-194.481000</v>
+        <v>-194.48099999999999</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>75914.676373</v>
+        <v>75914.676372999995</v>
       </c>
       <c r="BJ3" s="1">
-        <v>21.087410</v>
+        <v>21.087409999999998</v>
       </c>
       <c r="BK3" s="1">
-        <v>1110.400000</v>
+        <v>1110.4000000000001</v>
       </c>
       <c r="BL3" s="1">
-        <v>-308.938000</v>
+        <v>-308.93799999999999</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>75926.111109</v>
+        <v>75926.111109000005</v>
       </c>
       <c r="BO3" s="1">
-        <v>21.090586</v>
+        <v>21.090585999999998</v>
       </c>
       <c r="BP3" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-488.296000</v>
+        <v>-488.29599999999999</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
-        <v>75937.270598</v>
+        <v>75937.270598000003</v>
       </c>
       <c r="BT3" s="1">
-        <v>21.093686</v>
+        <v>21.093686000000002</v>
       </c>
       <c r="BU3" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="BV3" s="1">
-        <v>-684.225000</v>
+        <v>-684.22500000000002</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>75948.435544</v>
+        <v>75948.435544000007</v>
       </c>
       <c r="BY3" s="1">
         <v>21.096788</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1473.360000</v>
+        <v>1473.36</v>
       </c>
       <c r="CA3" s="1">
-        <v>-892.005000</v>
+        <v>-892.005</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
-        <v>75959.410026</v>
+        <v>75959.410025999998</v>
       </c>
       <c r="CD3" s="1">
         <v>21.099836</v>
       </c>
       <c r="CE3" s="1">
-        <v>1822.510000</v>
+        <v>1822.51</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1385.180000</v>
+        <v>-1385.18</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>75787.898412</v>
+        <v>75787.898411999995</v>
       </c>
       <c r="B4" s="1">
         <v>21.052194</v>
       </c>
       <c r="C4" s="1">
-        <v>902.212000</v>
+        <v>902.21199999999999</v>
       </c>
       <c r="D4" s="1">
-        <v>-197.563000</v>
+        <v>-197.56299999999999</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>75798.616958</v>
+        <v>75798.616957999999</v>
       </c>
       <c r="G4" s="1">
-        <v>21.055171</v>
+        <v>21.055171000000001</v>
       </c>
       <c r="H4" s="1">
-        <v>920.573000</v>
+        <v>920.57299999999998</v>
       </c>
       <c r="I4" s="1">
-        <v>-168.145000</v>
+        <v>-168.14500000000001</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>75809.137136</v>
+        <v>75809.137136000005</v>
       </c>
       <c r="L4" s="1">
-        <v>21.058094</v>
+        <v>21.058094000000001</v>
       </c>
       <c r="M4" s="1">
-        <v>944.469000</v>
+        <v>944.46900000000005</v>
       </c>
       <c r="N4" s="1">
-        <v>-120.479000</v>
+        <v>-120.479</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
         <v>75819.647331</v>
       </c>
       <c r="Q4" s="1">
-        <v>21.061013</v>
+        <v>21.061012999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>951.698000</v>
+        <v>951.69799999999998</v>
       </c>
       <c r="S4" s="1">
-        <v>-104.323000</v>
+        <v>-104.32299999999999</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>75830.552869</v>
+        <v>75830.552869000006</v>
       </c>
       <c r="V4" s="1">
-        <v>21.064042</v>
+        <v>21.064042000000001</v>
       </c>
       <c r="W4" s="1">
-        <v>958.721000</v>
+        <v>958.721</v>
       </c>
       <c r="X4" s="1">
-        <v>-89.428300</v>
+        <v>-89.428299999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>75841.047718</v>
+        <v>75841.047718000002</v>
       </c>
       <c r="AA4" s="1">
         <v>21.066958</v>
       </c>
       <c r="AB4" s="1">
-        <v>966.305000</v>
+        <v>966.30499999999995</v>
       </c>
       <c r="AC4" s="1">
-        <v>-77.552300</v>
+        <v>-77.552300000000002</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>75851.324328</v>
+        <v>75851.324328000002</v>
       </c>
       <c r="AF4" s="1">
-        <v>21.069812</v>
+        <v>21.069811999999999</v>
       </c>
       <c r="AG4" s="1">
-        <v>971.254000</v>
+        <v>971.25400000000002</v>
       </c>
       <c r="AH4" s="1">
-        <v>-75.194700</v>
+        <v>-75.194699999999997</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>75861.221531</v>
+        <v>75861.221531000003</v>
       </c>
       <c r="AK4" s="1">
-        <v>21.072562</v>
+        <v>21.072562000000001</v>
       </c>
       <c r="AL4" s="1">
-        <v>978.674000</v>
+        <v>978.67399999999998</v>
       </c>
       <c r="AM4" s="1">
-        <v>-79.624300</v>
+        <v>-79.624300000000005</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>75871.501582</v>
+        <v>75871.501581999997</v>
       </c>
       <c r="AP4" s="1">
-        <v>21.075417</v>
+        <v>21.075417000000002</v>
       </c>
       <c r="AQ4" s="1">
-        <v>986.842000</v>
+        <v>986.84199999999998</v>
       </c>
       <c r="AR4" s="1">
-        <v>-90.897600</v>
+        <v>-90.897599999999997</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>75882.039584</v>
+        <v>75882.039583999998</v>
       </c>
       <c r="AU4" s="1">
-        <v>21.078344</v>
+        <v>21.078344000000001</v>
       </c>
       <c r="AV4" s="1">
-        <v>996.730000</v>
+        <v>996.73</v>
       </c>
       <c r="AW4" s="1">
-        <v>-108.196000</v>
+        <v>-108.196</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>75893.090449</v>
+        <v>75893.090448999996</v>
       </c>
       <c r="AZ4" s="1">
-        <v>21.081414</v>
+        <v>21.081413999999999</v>
       </c>
       <c r="BA4" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB4" s="1">
-        <v>-123.627000</v>
+        <v>-123.627</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>75904.044595</v>
+        <v>75904.044594999999</v>
       </c>
       <c r="BE4" s="1">
         <v>21.084457</v>
       </c>
       <c r="BF4" s="1">
-        <v>1043.700000</v>
+        <v>1043.7</v>
       </c>
       <c r="BG4" s="1">
-        <v>-194.485000</v>
+        <v>-194.48500000000001</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>75915.054294</v>
+        <v>75915.054294000001</v>
       </c>
       <c r="BJ4" s="1">
         <v>21.087515</v>
       </c>
       <c r="BK4" s="1">
-        <v>1110.410000</v>
+        <v>1110.4100000000001</v>
       </c>
       <c r="BL4" s="1">
-        <v>-308.913000</v>
+        <v>-308.91300000000001</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
-        <v>75926.927524</v>
+        <v>75926.927523999999</v>
       </c>
       <c r="BO4" s="1">
-        <v>21.090813</v>
+        <v>21.090813000000001</v>
       </c>
       <c r="BP4" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-488.284000</v>
+        <v>-488.28399999999999</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>75937.703142</v>
+        <v>75937.703141999998</v>
       </c>
       <c r="BT4" s="1">
-        <v>21.093806</v>
+        <v>21.093806000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1338.820000</v>
+        <v>1338.82</v>
       </c>
       <c r="BV4" s="1">
-        <v>-684.183000</v>
+        <v>-684.18299999999999</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>75948.867063</v>
+        <v>75948.867062999998</v>
       </c>
       <c r="BY4" s="1">
-        <v>21.096908</v>
+        <v>21.096907999999999</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1473.340000</v>
+        <v>1473.34</v>
       </c>
       <c r="CA4" s="1">
-        <v>-892.060000</v>
+        <v>-892.06</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>75959.928345</v>
+        <v>75959.928344999993</v>
       </c>
       <c r="CD4" s="1">
-        <v>21.099980</v>
+        <v>21.099979999999999</v>
       </c>
       <c r="CE4" s="1">
-        <v>1822.600000</v>
+        <v>1822.6</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1383.910000</v>
+        <v>-1383.91</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>75788.570988</v>
+        <v>75788.570988000007</v>
       </c>
       <c r="B5" s="1">
         <v>21.052381</v>
       </c>
       <c r="C5" s="1">
-        <v>902.279000</v>
+        <v>902.279</v>
       </c>
       <c r="D5" s="1">
-        <v>-197.610000</v>
+        <v>-197.61</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>75798.989949</v>
+        <v>75798.989948999995</v>
       </c>
       <c r="G5" s="1">
-        <v>21.055275</v>
+        <v>21.055275000000002</v>
       </c>
       <c r="H5" s="1">
-        <v>920.089000</v>
+        <v>920.08900000000006</v>
       </c>
       <c r="I5" s="1">
-        <v>-168.114000</v>
+        <v>-168.114</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>75809.476863</v>
+        <v>75809.476863000004</v>
       </c>
       <c r="L5" s="1">
-        <v>21.058188</v>
+        <v>21.058188000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>944.428000</v>
+        <v>944.428</v>
       </c>
       <c r="N5" s="1">
-        <v>-120.440000</v>
+        <v>-120.44</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>75819.996515</v>
+        <v>75819.996515000006</v>
       </c>
       <c r="Q5" s="1">
-        <v>21.061110</v>
+        <v>21.061109999999999</v>
       </c>
       <c r="R5" s="1">
-        <v>951.681000</v>
+        <v>951.68100000000004</v>
       </c>
       <c r="S5" s="1">
-        <v>-104.302000</v>
+        <v>-104.30200000000001</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>75830.894643</v>
+        <v>75830.894643000007</v>
       </c>
       <c r="V5" s="1">
-        <v>21.064137</v>
+        <v>21.064136999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>958.711000</v>
+        <v>958.71100000000001</v>
       </c>
       <c r="X5" s="1">
-        <v>-89.354400</v>
+        <v>-89.354399999999998</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>75841.396405</v>
+        <v>75841.396405000007</v>
       </c>
       <c r="AA5" s="1">
         <v>21.067055</v>
       </c>
       <c r="AB5" s="1">
-        <v>966.292000</v>
+        <v>966.29200000000003</v>
       </c>
       <c r="AC5" s="1">
-        <v>-77.510900</v>
+        <v>-77.510900000000007</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>75851.741465</v>
+        <v>75851.741464999999</v>
       </c>
       <c r="AF5" s="1">
-        <v>21.069928</v>
+        <v>21.069928000000001</v>
       </c>
       <c r="AG5" s="1">
-        <v>971.271000</v>
+        <v>971.27099999999996</v>
       </c>
       <c r="AH5" s="1">
-        <v>-75.150400</v>
+        <v>-75.150400000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
-        <v>75861.519099</v>
+        <v>75861.519098999997</v>
       </c>
       <c r="AK5" s="1">
         <v>21.072644</v>
       </c>
       <c r="AL5" s="1">
-        <v>978.687000</v>
+        <v>978.68700000000001</v>
       </c>
       <c r="AM5" s="1">
-        <v>-79.617900</v>
+        <v>-79.617900000000006</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>75871.789757</v>
+        <v>75871.789757000006</v>
       </c>
       <c r="AP5" s="1">
-        <v>21.075497</v>
+        <v>21.075496999999999</v>
       </c>
       <c r="AQ5" s="1">
-        <v>986.847000</v>
+        <v>986.84699999999998</v>
       </c>
       <c r="AR5" s="1">
-        <v>-90.877600</v>
+        <v>-90.877600000000001</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>75882.406623</v>
+        <v>75882.406623000003</v>
       </c>
       <c r="AU5" s="1">
         <v>21.078446</v>
       </c>
       <c r="AV5" s="1">
-        <v>996.726000</v>
+        <v>996.726</v>
       </c>
       <c r="AW5" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>75893.445584</v>
+        <v>75893.445584000001</v>
       </c>
       <c r="AZ5" s="1">
-        <v>21.081513</v>
+        <v>21.081513000000001</v>
       </c>
       <c r="BA5" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB5" s="1">
-        <v>-123.617000</v>
+        <v>-123.617</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>75904.406178</v>
+        <v>75904.406178000005</v>
       </c>
       <c r="BE5" s="1">
         <v>21.084557</v>
       </c>
       <c r="BF5" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG5" s="1">
-        <v>-194.472000</v>
+        <v>-194.47200000000001</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>75915.805243</v>
+        <v>75915.805242999995</v>
       </c>
       <c r="BJ5" s="1">
-        <v>21.087724</v>
+        <v>21.087724000000001</v>
       </c>
       <c r="BK5" s="1">
-        <v>1110.460000</v>
+        <v>1110.46</v>
       </c>
       <c r="BL5" s="1">
-        <v>-308.965000</v>
+        <v>-308.96499999999997</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>75927.346149</v>
+        <v>75927.346149000005</v>
       </c>
       <c r="BO5" s="1">
-        <v>21.090929</v>
+        <v>21.090928999999999</v>
       </c>
       <c r="BP5" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-488.283000</v>
+        <v>-488.28300000000002</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>75938.122230</v>
+        <v>75938.122229999994</v>
       </c>
       <c r="BT5" s="1">
         <v>21.093923</v>
       </c>
       <c r="BU5" s="1">
-        <v>1338.810000</v>
+        <v>1338.81</v>
       </c>
       <c r="BV5" s="1">
-        <v>-684.178000</v>
+        <v>-684.178</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>75949.288664</v>
+        <v>75949.288664000007</v>
       </c>
       <c r="BY5" s="1">
-        <v>21.097025</v>
+        <v>21.097024999999999</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA5" s="1">
-        <v>-892.014000</v>
+        <v>-892.01400000000001</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
-        <v>75960.759143</v>
+        <v>75960.759143000003</v>
       </c>
       <c r="CD5" s="1">
-        <v>21.100211</v>
+        <v>21.100211000000002</v>
       </c>
       <c r="CE5" s="1">
-        <v>1821.170000</v>
+        <v>1821.17</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1384.370000</v>
+        <v>-1384.37</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
-        <v>75788.922651</v>
+        <v>75788.922651000001</v>
       </c>
       <c r="B6" s="1">
-        <v>21.052479</v>
+        <v>21.052479000000002</v>
       </c>
       <c r="C6" s="1">
-        <v>902.170000</v>
+        <v>902.17</v>
       </c>
       <c r="D6" s="1">
-        <v>-197.658000</v>
+        <v>-197.65799999999999</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>75799.316813</v>
+        <v>75799.316812999998</v>
       </c>
       <c r="G6" s="1">
-        <v>21.055366</v>
+        <v>21.055365999999999</v>
       </c>
       <c r="H6" s="1">
-        <v>920.571000</v>
+        <v>920.57100000000003</v>
       </c>
       <c r="I6" s="1">
-        <v>-168.393000</v>
+        <v>-168.393</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>75809.827040</v>
+        <v>75809.827040000004</v>
       </c>
       <c r="L6" s="1">
-        <v>21.058285</v>
+        <v>21.058285000000001</v>
       </c>
       <c r="M6" s="1">
-        <v>944.388000</v>
+        <v>944.38800000000003</v>
       </c>
       <c r="N6" s="1">
-        <v>-120.442000</v>
+        <v>-120.44199999999999</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
         <v>75820.345233</v>
@@ -1554,632 +1970,632 @@
         <v>21.061207</v>
       </c>
       <c r="R6" s="1">
-        <v>951.709000</v>
+        <v>951.70899999999995</v>
       </c>
       <c r="S6" s="1">
-        <v>-104.332000</v>
+        <v>-104.33199999999999</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>75831.320674</v>
+        <v>75831.320674000002</v>
       </c>
       <c r="V6" s="1">
         <v>21.064256</v>
       </c>
       <c r="W6" s="1">
-        <v>958.738000</v>
+        <v>958.73800000000006</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.285700</v>
+        <v>-89.285700000000006</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>75841.890953</v>
+        <v>75841.890952999995</v>
       </c>
       <c r="AA6" s="1">
-        <v>21.067192</v>
+        <v>21.067191999999999</v>
       </c>
       <c r="AB6" s="1">
-        <v>966.294000</v>
+        <v>966.29399999999998</v>
       </c>
       <c r="AC6" s="1">
-        <v>-77.562100</v>
+        <v>-77.562100000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>75852.038071</v>
+        <v>75852.038071000003</v>
       </c>
       <c r="AF6" s="1">
-        <v>21.070011</v>
+        <v>21.070011000000001</v>
       </c>
       <c r="AG6" s="1">
-        <v>971.268000</v>
+        <v>971.26800000000003</v>
       </c>
       <c r="AH6" s="1">
-        <v>-75.179300</v>
+        <v>-75.179299999999998</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>75861.865802</v>
       </c>
       <c r="AK6" s="1">
-        <v>21.072741</v>
+        <v>21.072741000000001</v>
       </c>
       <c r="AL6" s="1">
-        <v>978.672000</v>
+        <v>978.67200000000003</v>
       </c>
       <c r="AM6" s="1">
-        <v>-79.599200</v>
+        <v>-79.599199999999996</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>75872.148365</v>
+        <v>75872.148365000001</v>
       </c>
       <c r="AP6" s="1">
-        <v>21.075597</v>
+        <v>21.075596999999998</v>
       </c>
       <c r="AQ6" s="1">
-        <v>986.843000</v>
+        <v>986.84299999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-90.889800</v>
+        <v>-90.889799999999994</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>75882.771678</v>
+        <v>75882.771678000005</v>
       </c>
       <c r="AU6" s="1">
-        <v>21.078548</v>
+        <v>21.078548000000001</v>
       </c>
       <c r="AV6" s="1">
-        <v>996.727000</v>
+        <v>996.72699999999998</v>
       </c>
       <c r="AW6" s="1">
-        <v>-108.194000</v>
+        <v>-108.194</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>75894.164304</v>
+        <v>75894.164304000005</v>
       </c>
       <c r="AZ6" s="1">
         <v>21.081712</v>
       </c>
       <c r="BA6" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB6" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
-        <v>75905.129841</v>
+        <v>75905.129841000002</v>
       </c>
       <c r="BE6" s="1">
-        <v>21.084758</v>
+        <v>21.084758000000001</v>
       </c>
       <c r="BF6" s="1">
-        <v>1043.740000</v>
+        <v>1043.74</v>
       </c>
       <c r="BG6" s="1">
-        <v>-194.468000</v>
+        <v>-194.46799999999999</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
-        <v>75916.177730</v>
+        <v>75916.177729999996</v>
       </c>
       <c r="BJ6" s="1">
-        <v>21.087827</v>
+        <v>21.087827000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1110.460000</v>
+        <v>1110.46</v>
       </c>
       <c r="BL6" s="1">
-        <v>-308.963000</v>
+        <v>-308.96300000000002</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>75927.742483</v>
+        <v>75927.742482999995</v>
       </c>
       <c r="BO6" s="1">
-        <v>21.091040</v>
+        <v>21.09104</v>
       </c>
       <c r="BP6" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-488.305000</v>
+        <v>-488.30500000000001</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>75938.549286</v>
+        <v>75938.549285999994</v>
       </c>
       <c r="BT6" s="1">
-        <v>21.094041</v>
+        <v>21.094041000000001</v>
       </c>
       <c r="BU6" s="1">
-        <v>1338.860000</v>
+        <v>1338.86</v>
       </c>
       <c r="BV6" s="1">
-        <v>-684.124000</v>
+        <v>-684.12400000000002</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
-        <v>75950.026710</v>
+        <v>75950.026710000006</v>
       </c>
       <c r="BY6" s="1">
-        <v>21.097230</v>
+        <v>21.09723</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1473.390000</v>
+        <v>1473.39</v>
       </c>
       <c r="CA6" s="1">
-        <v>-892.044000</v>
+        <v>-892.04399999999998</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>75960.999207</v>
+        <v>75960.999207000001</v>
       </c>
       <c r="CD6" s="1">
-        <v>21.100278</v>
+        <v>21.100277999999999</v>
       </c>
       <c r="CE6" s="1">
-        <v>1822.770000</v>
+        <v>1822.77</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1385.320000</v>
+        <v>-1385.32</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>75789.263903</v>
+        <v>75789.263902999999</v>
       </c>
       <c r="B7" s="1">
-        <v>21.052573</v>
+        <v>21.052572999999999</v>
       </c>
       <c r="C7" s="1">
-        <v>902.113000</v>
+        <v>902.11300000000006</v>
       </c>
       <c r="D7" s="1">
-        <v>-197.534000</v>
+        <v>-197.53399999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
-        <v>75799.679885</v>
+        <v>75799.679885000005</v>
       </c>
       <c r="G7" s="1">
         <v>21.055467</v>
       </c>
       <c r="H7" s="1">
-        <v>920.264000</v>
+        <v>920.26400000000001</v>
       </c>
       <c r="I7" s="1">
-        <v>-168.107000</v>
+        <v>-168.107</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>75810.274238</v>
+        <v>75810.274237999998</v>
       </c>
       <c r="L7" s="1">
-        <v>21.058410</v>
+        <v>21.058409999999999</v>
       </c>
       <c r="M7" s="1">
-        <v>944.458000</v>
+        <v>944.45799999999997</v>
       </c>
       <c r="N7" s="1">
-        <v>-120.471000</v>
+        <v>-120.471</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>75820.768817</v>
+        <v>75820.768817000004</v>
       </c>
       <c r="Q7" s="1">
         <v>21.061325</v>
       </c>
       <c r="R7" s="1">
-        <v>951.696000</v>
+        <v>951.69600000000003</v>
       </c>
       <c r="S7" s="1">
-        <v>-104.321000</v>
+        <v>-104.321</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>75831.597442</v>
+        <v>75831.597441999998</v>
       </c>
       <c r="V7" s="1">
-        <v>21.064333</v>
+        <v>21.064333000000001</v>
       </c>
       <c r="W7" s="1">
-        <v>958.820000</v>
+        <v>958.82</v>
       </c>
       <c r="X7" s="1">
-        <v>-89.354000</v>
+        <v>-89.353999999999999</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>75842.093284</v>
+        <v>75842.093284000002</v>
       </c>
       <c r="AA7" s="1">
-        <v>21.067248</v>
+        <v>21.067247999999999</v>
       </c>
       <c r="AB7" s="1">
-        <v>966.276000</v>
+        <v>966.27599999999995</v>
       </c>
       <c r="AC7" s="1">
-        <v>-77.573500</v>
+        <v>-77.573499999999996</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>75852.382791</v>
+        <v>75852.382790999996</v>
       </c>
       <c r="AF7" s="1">
-        <v>21.070106</v>
+        <v>21.070105999999999</v>
       </c>
       <c r="AG7" s="1">
-        <v>971.266000</v>
+        <v>971.26599999999996</v>
       </c>
       <c r="AH7" s="1">
-        <v>-75.202200</v>
+        <v>-75.202200000000005</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>75862.215978</v>
+        <v>75862.215977999993</v>
       </c>
       <c r="AK7" s="1">
-        <v>21.072838</v>
+        <v>21.072838000000001</v>
       </c>
       <c r="AL7" s="1">
-        <v>978.635000</v>
+        <v>978.63499999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-79.596900</v>
+        <v>-79.596900000000005</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>75872.505517</v>
+        <v>75872.505516999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>21.075696</v>
+        <v>21.075696000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>986.843000</v>
+        <v>986.84299999999996</v>
       </c>
       <c r="AR7" s="1">
-        <v>-90.896200</v>
+        <v>-90.896199999999993</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>75883.501071</v>
+        <v>75883.501071000006</v>
       </c>
       <c r="AU7" s="1">
-        <v>21.078750</v>
+        <v>21.078749999999999</v>
       </c>
       <c r="AV7" s="1">
-        <v>996.725000</v>
+        <v>996.72500000000002</v>
       </c>
       <c r="AW7" s="1">
-        <v>-108.195000</v>
+        <v>-108.19499999999999</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>75894.523391</v>
+        <v>75894.523390999995</v>
       </c>
       <c r="AZ7" s="1">
-        <v>21.081812</v>
+        <v>21.081811999999999</v>
       </c>
       <c r="BA7" s="1">
-        <v>1005.010000</v>
+        <v>1005.01</v>
       </c>
       <c r="BB7" s="1">
-        <v>-123.635000</v>
+        <v>-123.63500000000001</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>75905.490433</v>
+        <v>75905.490432999999</v>
       </c>
       <c r="BE7" s="1">
-        <v>21.084858</v>
+        <v>21.084858000000001</v>
       </c>
       <c r="BF7" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG7" s="1">
-        <v>-194.488000</v>
+        <v>-194.488</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
         <v>75916.554699</v>
       </c>
       <c r="BJ7" s="1">
-        <v>21.087932</v>
+        <v>21.087931999999999</v>
       </c>
       <c r="BK7" s="1">
-        <v>1110.450000</v>
+        <v>1110.45</v>
       </c>
       <c r="BL7" s="1">
-        <v>-308.939000</v>
+        <v>-308.93900000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>75928.475079</v>
+        <v>75928.475078999996</v>
       </c>
       <c r="BO7" s="1">
-        <v>21.091243</v>
+        <v>21.091242999999999</v>
       </c>
       <c r="BP7" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-488.311000</v>
+        <v>-488.31099999999998</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>75939.282403</v>
+        <v>75939.282403000005</v>
       </c>
       <c r="BT7" s="1">
-        <v>21.094245</v>
+        <v>21.094245000000001</v>
       </c>
       <c r="BU7" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="BV7" s="1">
-        <v>-684.142000</v>
+        <v>-684.14200000000005</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>75950.136821</v>
+        <v>75950.136820999993</v>
       </c>
       <c r="BY7" s="1">
-        <v>21.097260</v>
+        <v>21.097259999999999</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1473.320000</v>
+        <v>1473.32</v>
       </c>
       <c r="CA7" s="1">
-        <v>-892.127000</v>
+        <v>-892.12699999999995</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>75961.530422</v>
+        <v>75961.530421999996</v>
       </c>
       <c r="CD7" s="1">
-        <v>21.100425</v>
+        <v>21.100425000000001</v>
       </c>
       <c r="CE7" s="1">
-        <v>1822.220000</v>
+        <v>1822.22</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1383.930000</v>
+        <v>-1383.93</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>75789.613578</v>
+        <v>75789.613578000004</v>
       </c>
       <c r="B8" s="1">
-        <v>21.052670</v>
+        <v>21.052669999999999</v>
       </c>
       <c r="C8" s="1">
-        <v>902.413000</v>
+        <v>902.41300000000001</v>
       </c>
       <c r="D8" s="1">
-        <v>-197.632000</v>
+        <v>-197.63200000000001</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>75800.109917</v>
+        <v>75800.109916999994</v>
       </c>
       <c r="G8" s="1">
-        <v>21.055586</v>
+        <v>21.055586000000002</v>
       </c>
       <c r="H8" s="1">
-        <v>920.612000</v>
+        <v>920.61199999999997</v>
       </c>
       <c r="I8" s="1">
-        <v>-168.117000</v>
+        <v>-168.11699999999999</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
-        <v>75810.522430</v>
+        <v>75810.522429999997</v>
       </c>
       <c r="L8" s="1">
-        <v>21.058478</v>
+        <v>21.058478000000001</v>
       </c>
       <c r="M8" s="1">
-        <v>944.329000</v>
+        <v>944.32899999999995</v>
       </c>
       <c r="N8" s="1">
-        <v>-120.413000</v>
+        <v>-120.413</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
-        <v>75821.043568</v>
+        <v>75821.043567999994</v>
       </c>
       <c r="Q8" s="1">
         <v>21.061401</v>
       </c>
       <c r="R8" s="1">
-        <v>951.688000</v>
+        <v>951.68799999999999</v>
       </c>
       <c r="S8" s="1">
-        <v>-104.362000</v>
+        <v>-104.36199999999999</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>75831.945138</v>
+        <v>75831.945137999995</v>
       </c>
       <c r="V8" s="1">
-        <v>21.064429</v>
+        <v>21.064429000000001</v>
       </c>
       <c r="W8" s="1">
-        <v>958.868000</v>
+        <v>958.86800000000005</v>
       </c>
       <c r="X8" s="1">
-        <v>-89.339600</v>
+        <v>-89.339600000000004</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>75842.452884</v>
+        <v>75842.452883999998</v>
       </c>
       <c r="AA8" s="1">
-        <v>21.067348</v>
+        <v>21.067347999999999</v>
       </c>
       <c r="AB8" s="1">
-        <v>966.319000</v>
+        <v>966.31899999999996</v>
       </c>
       <c r="AC8" s="1">
-        <v>-77.566700</v>
+        <v>-77.566699999999997</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
-        <v>75852.716598</v>
+        <v>75852.716597999999</v>
       </c>
       <c r="AF8" s="1">
-        <v>21.070199</v>
+        <v>21.070198999999999</v>
       </c>
       <c r="AG8" s="1">
-        <v>971.230000</v>
+        <v>971.23</v>
       </c>
       <c r="AH8" s="1">
-        <v>-75.193300</v>
+        <v>-75.193299999999994</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>75862.911865</v>
+        <v>75862.911865000002</v>
       </c>
       <c r="AK8" s="1">
         <v>21.073031</v>
       </c>
       <c r="AL8" s="1">
-        <v>978.661000</v>
+        <v>978.66099999999994</v>
       </c>
       <c r="AM8" s="1">
-        <v>-79.618700</v>
+        <v>-79.618700000000004</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>75873.226667</v>
+        <v>75873.226666999995</v>
       </c>
       <c r="AP8" s="1">
         <v>21.075896</v>
       </c>
       <c r="AQ8" s="1">
-        <v>986.856000</v>
+        <v>986.85599999999999</v>
       </c>
       <c r="AR8" s="1">
-        <v>-90.879700</v>
+        <v>-90.8797</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>75883.882221</v>
+        <v>75883.882221000007</v>
       </c>
       <c r="AU8" s="1">
-        <v>21.078856</v>
+        <v>21.078855999999998</v>
       </c>
       <c r="AV8" s="1">
-        <v>996.729000</v>
+        <v>996.72900000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-108.219000</v>
+        <v>-108.21899999999999</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>75894.882495</v>
+        <v>75894.882494999998</v>
       </c>
       <c r="AZ8" s="1">
-        <v>21.081912</v>
+        <v>21.081911999999999</v>
       </c>
       <c r="BA8" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB8" s="1">
-        <v>-123.623000</v>
+        <v>-123.623</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
         <v>75905.850068</v>
@@ -2188,605 +2604,605 @@
         <v>21.084958</v>
       </c>
       <c r="BF8" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG8" s="1">
-        <v>-194.474000</v>
+        <v>-194.47399999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>75917.253089</v>
+        <v>75917.253089000005</v>
       </c>
       <c r="BJ8" s="1">
-        <v>21.088126</v>
+        <v>21.088125999999999</v>
       </c>
       <c r="BK8" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL8" s="1">
-        <v>-308.937000</v>
+        <v>-308.93700000000001</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>75928.978481</v>
+        <v>75928.978480999998</v>
       </c>
       <c r="BO8" s="1">
         <v>21.091383</v>
       </c>
       <c r="BP8" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-488.248000</v>
+        <v>-488.24799999999999</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>75939.393971</v>
+        <v>75939.393970999998</v>
       </c>
       <c r="BT8" s="1">
-        <v>21.094276</v>
+        <v>21.094276000000001</v>
       </c>
       <c r="BU8" s="1">
-        <v>1338.780000</v>
+        <v>1338.78</v>
       </c>
       <c r="BV8" s="1">
-        <v>-684.132000</v>
+        <v>-684.13199999999995</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>75950.586196</v>
+        <v>75950.586196000004</v>
       </c>
       <c r="BY8" s="1">
-        <v>21.097385</v>
+        <v>21.097384999999999</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1473.320000</v>
+        <v>1473.32</v>
       </c>
       <c r="CA8" s="1">
-        <v>-892.056000</v>
+        <v>-892.05600000000004</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>75962.070069</v>
+        <v>75962.070068999994</v>
       </c>
       <c r="CD8" s="1">
-        <v>21.100575</v>
+        <v>21.100574999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1821.450000</v>
+        <v>1821.45</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1385.200000</v>
+        <v>-1385.2</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>75790.049602</v>
+        <v>75790.049601999999</v>
       </c>
       <c r="B9" s="1">
         <v>21.052792</v>
       </c>
       <c r="C9" s="1">
-        <v>902.372000</v>
+        <v>902.37199999999996</v>
       </c>
       <c r="D9" s="1">
-        <v>-197.569000</v>
+        <v>-197.56899999999999</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>75800.374284</v>
+        <v>75800.374284000005</v>
       </c>
       <c r="G9" s="1">
-        <v>21.055660</v>
+        <v>21.05566</v>
       </c>
       <c r="H9" s="1">
-        <v>919.985000</v>
+        <v>919.98500000000001</v>
       </c>
       <c r="I9" s="1">
-        <v>-168.374000</v>
+        <v>-168.374</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>75810.868638</v>
       </c>
       <c r="L9" s="1">
-        <v>21.058575</v>
+        <v>21.058575000000001</v>
       </c>
       <c r="M9" s="1">
-        <v>944.565000</v>
+        <v>944.56500000000005</v>
       </c>
       <c r="N9" s="1">
-        <v>-120.448000</v>
+        <v>-120.44799999999999</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>75821.390780</v>
+        <v>75821.390780000002</v>
       </c>
       <c r="Q9" s="1">
-        <v>21.061497</v>
+        <v>21.061496999999999</v>
       </c>
       <c r="R9" s="1">
-        <v>951.670000</v>
+        <v>951.67</v>
       </c>
       <c r="S9" s="1">
-        <v>-104.348000</v>
+        <v>-104.348</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
-        <v>75832.284401</v>
+        <v>75832.284400999997</v>
       </c>
       <c r="V9" s="1">
-        <v>21.064523</v>
+        <v>21.064523000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>958.670000</v>
+        <v>958.67</v>
       </c>
       <c r="X9" s="1">
-        <v>-89.269900</v>
+        <v>-89.269900000000007</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>75843.148771</v>
+        <v>75843.148770999993</v>
       </c>
       <c r="AA9" s="1">
-        <v>21.067541</v>
+        <v>21.067540999999999</v>
       </c>
       <c r="AB9" s="1">
-        <v>966.366000</v>
+        <v>966.36599999999999</v>
       </c>
       <c r="AC9" s="1">
-        <v>-77.583900</v>
+        <v>-77.5839</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
         <v>75853.411989</v>
       </c>
       <c r="AF9" s="1">
-        <v>21.070392</v>
+        <v>21.070391999999998</v>
       </c>
       <c r="AG9" s="1">
-        <v>971.246000</v>
+        <v>971.24599999999998</v>
       </c>
       <c r="AH9" s="1">
-        <v>-75.185400</v>
+        <v>-75.185400000000001</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>75863.261546</v>
+        <v>75863.261545999994</v>
       </c>
       <c r="AK9" s="1">
-        <v>21.073128</v>
+        <v>21.073128000000001</v>
       </c>
       <c r="AL9" s="1">
-        <v>978.641000</v>
+        <v>978.64099999999996</v>
       </c>
       <c r="AM9" s="1">
-        <v>-79.595600</v>
+        <v>-79.595600000000005</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>75873.589244</v>
+        <v>75873.589244000003</v>
       </c>
       <c r="AP9" s="1">
-        <v>21.075997</v>
+        <v>21.075997000000001</v>
       </c>
       <c r="AQ9" s="1">
-        <v>986.826000</v>
+        <v>986.82600000000002</v>
       </c>
       <c r="AR9" s="1">
-        <v>-90.875200</v>
+        <v>-90.875200000000007</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>75884.247804</v>
+        <v>75884.247803999999</v>
       </c>
       <c r="AU9" s="1">
         <v>21.078958</v>
       </c>
       <c r="AV9" s="1">
-        <v>996.716000</v>
+        <v>996.71600000000001</v>
       </c>
       <c r="AW9" s="1">
-        <v>-108.202000</v>
+        <v>-108.202</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>75895.563998</v>
+        <v>75895.563997999998</v>
       </c>
       <c r="AZ9" s="1">
-        <v>21.082101</v>
+        <v>21.082101000000002</v>
       </c>
       <c r="BA9" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB9" s="1">
-        <v>-123.633000</v>
+        <v>-123.633</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>75906.522639</v>
+        <v>75906.522639000003</v>
       </c>
       <c r="BE9" s="1">
-        <v>21.085145</v>
+        <v>21.085145000000001</v>
       </c>
       <c r="BF9" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG9" s="1">
-        <v>-194.462000</v>
+        <v>-194.46199999999999</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>75917.679618</v>
+        <v>75917.679617999995</v>
       </c>
       <c r="BJ9" s="1">
         <v>21.088244</v>
       </c>
       <c r="BK9" s="1">
-        <v>1110.420000</v>
+        <v>1110.42</v>
       </c>
       <c r="BL9" s="1">
-        <v>-308.962000</v>
+        <v>-308.96199999999999</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>75929.397602</v>
+        <v>75929.397601999997</v>
       </c>
       <c r="BO9" s="1">
-        <v>21.091499</v>
+        <v>21.091498999999999</v>
       </c>
       <c r="BP9" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-488.289000</v>
+        <v>-488.28899999999999</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>75939.833427</v>
+        <v>75939.833427000005</v>
       </c>
       <c r="BT9" s="1">
-        <v>21.094398</v>
+        <v>21.094398000000002</v>
       </c>
       <c r="BU9" s="1">
-        <v>1338.820000</v>
+        <v>1338.82</v>
       </c>
       <c r="BV9" s="1">
-        <v>-684.060000</v>
+        <v>-684.06</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>75951.017718</v>
+        <v>75951.017718000003</v>
       </c>
       <c r="BY9" s="1">
-        <v>21.097505</v>
+        <v>21.097505000000002</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1473.360000</v>
+        <v>1473.36</v>
       </c>
       <c r="CA9" s="1">
-        <v>-892.073000</v>
+        <v>-892.07299999999998</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
-        <v>75962.611713</v>
+        <v>75962.611713000006</v>
       </c>
       <c r="CD9" s="1">
-        <v>21.100725</v>
+        <v>21.100725000000001</v>
       </c>
       <c r="CE9" s="1">
-        <v>1822.900000</v>
+        <v>1822.9</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1384.200000</v>
+        <v>-1384.2</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>75790.317401</v>
+        <v>75790.317400999993</v>
       </c>
       <c r="B10" s="1">
-        <v>21.052866</v>
+        <v>21.052866000000002</v>
       </c>
       <c r="C10" s="1">
-        <v>902.245000</v>
+        <v>902.245</v>
       </c>
       <c r="D10" s="1">
-        <v>-197.613000</v>
+        <v>-197.613</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>75800.719004</v>
+        <v>75800.719003999999</v>
       </c>
       <c r="G10" s="1">
-        <v>21.055755</v>
+        <v>21.055755000000001</v>
       </c>
       <c r="H10" s="1">
-        <v>920.327000</v>
+        <v>920.327</v>
       </c>
       <c r="I10" s="1">
-        <v>-168.354000</v>
+        <v>-168.35400000000001</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
-        <v>75811.210417</v>
+        <v>75811.210416999995</v>
       </c>
       <c r="L10" s="1">
-        <v>21.058670</v>
+        <v>21.058669999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>944.546000</v>
+        <v>944.54600000000005</v>
       </c>
       <c r="N10" s="1">
-        <v>-120.335000</v>
+        <v>-120.33499999999999</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>75821.740943</v>
+        <v>75821.740942999997</v>
       </c>
       <c r="Q10" s="1">
-        <v>21.061595</v>
+        <v>21.061595000000001</v>
       </c>
       <c r="R10" s="1">
-        <v>951.708000</v>
+        <v>951.70799999999997</v>
       </c>
       <c r="S10" s="1">
-        <v>-104.322000</v>
+        <v>-104.322</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>75832.973376</v>
+        <v>75832.973375999994</v>
       </c>
       <c r="V10" s="1">
         <v>21.064715</v>
       </c>
       <c r="W10" s="1">
-        <v>958.882000</v>
+        <v>958.88199999999995</v>
       </c>
       <c r="X10" s="1">
-        <v>-89.360100</v>
+        <v>-89.360100000000003</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>75843.498948</v>
+        <v>75843.498947999993</v>
       </c>
       <c r="AA10" s="1">
         <v>21.067639</v>
       </c>
       <c r="AB10" s="1">
-        <v>966.315000</v>
+        <v>966.31500000000005</v>
       </c>
       <c r="AC10" s="1">
-        <v>-77.559800</v>
+        <v>-77.559799999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>75853.756709</v>
+        <v>75853.756708999994</v>
       </c>
       <c r="AF10" s="1">
-        <v>21.070488</v>
+        <v>21.070488000000001</v>
       </c>
       <c r="AG10" s="1">
-        <v>971.238000</v>
+        <v>971.23800000000006</v>
       </c>
       <c r="AH10" s="1">
-        <v>-75.179100</v>
+        <v>-75.179100000000005</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
-        <v>75863.608777</v>
+        <v>75863.608777000001</v>
       </c>
       <c r="AK10" s="1">
-        <v>21.073225</v>
+        <v>21.073225000000001</v>
       </c>
       <c r="AL10" s="1">
-        <v>978.650000</v>
+        <v>978.65</v>
       </c>
       <c r="AM10" s="1">
-        <v>-79.604300</v>
+        <v>-79.604299999999995</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>75873.949844</v>
+        <v>75873.949844000002</v>
       </c>
       <c r="AP10" s="1">
-        <v>21.076097</v>
+        <v>21.076097000000001</v>
       </c>
       <c r="AQ10" s="1">
-        <v>986.836000</v>
+        <v>986.83600000000001</v>
       </c>
       <c r="AR10" s="1">
-        <v>-90.898100</v>
+        <v>-90.898099999999999</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>75884.930798</v>
+        <v>75884.930798000001</v>
       </c>
       <c r="AU10" s="1">
-        <v>21.079147</v>
+        <v>21.079146999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>996.734000</v>
+        <v>996.73400000000004</v>
       </c>
       <c r="AW10" s="1">
-        <v>-108.185000</v>
+        <v>-108.185</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>75895.960301</v>
+        <v>75895.960300999999</v>
       </c>
       <c r="AZ10" s="1">
-        <v>21.082211</v>
+        <v>21.082211000000001</v>
       </c>
       <c r="BA10" s="1">
-        <v>1005.010000</v>
+        <v>1005.01</v>
       </c>
       <c r="BB10" s="1">
-        <v>-123.647000</v>
+        <v>-123.64700000000001</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>75906.960080</v>
+        <v>75906.960080000004</v>
       </c>
       <c r="BE10" s="1">
-        <v>21.085267</v>
+        <v>21.085267000000002</v>
       </c>
       <c r="BF10" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG10" s="1">
-        <v>-194.479000</v>
+        <v>-194.47900000000001</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>75918.053600</v>
+        <v>75918.053599999999</v>
       </c>
       <c r="BJ10" s="1">
         <v>21.088348</v>
       </c>
       <c r="BK10" s="1">
-        <v>1110.430000</v>
+        <v>1110.43</v>
       </c>
       <c r="BL10" s="1">
-        <v>-308.930000</v>
+        <v>-308.93</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
-        <v>75929.796914</v>
+        <v>75929.796914000006</v>
       </c>
       <c r="BO10" s="1">
-        <v>21.091610</v>
+        <v>21.091609999999999</v>
       </c>
       <c r="BP10" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-488.277000</v>
+        <v>-488.27699999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>75940.258035</v>
+        <v>75940.258035000006</v>
       </c>
       <c r="BT10" s="1">
-        <v>21.094516</v>
+        <v>21.094515999999999</v>
       </c>
       <c r="BU10" s="1">
-        <v>1338.870000</v>
+        <v>1338.87</v>
       </c>
       <c r="BV10" s="1">
-        <v>-684.097000</v>
+        <v>-684.09699999999998</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>75951.437828</v>
+        <v>75951.437827999995</v>
       </c>
       <c r="BY10" s="1">
-        <v>21.097622</v>
+        <v>21.097622000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1473.340000</v>
+        <v>1473.34</v>
       </c>
       <c r="CA10" s="1">
-        <v>-892.113000</v>
+        <v>-892.11300000000006</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>75963.147877</v>
+        <v>75963.147876999996</v>
       </c>
       <c r="CD10" s="1">
-        <v>21.100874</v>
+        <v>21.100874000000001</v>
       </c>
       <c r="CE10" s="1">
-        <v>1821.370000</v>
+        <v>1821.37</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1384.470000</v>
+        <v>-1384.47</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
         <v>75790.661129</v>
       </c>
@@ -2794,1131 +3210,1131 @@
         <v>21.052961</v>
       </c>
       <c r="C11" s="1">
-        <v>902.197000</v>
+        <v>902.197</v>
       </c>
       <c r="D11" s="1">
-        <v>-197.754000</v>
+        <v>-197.75399999999999</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>75801.065210</v>
+        <v>75801.065210000001</v>
       </c>
       <c r="G11" s="1">
-        <v>21.055851</v>
+        <v>21.055851000000001</v>
       </c>
       <c r="H11" s="1">
-        <v>920.500000</v>
+        <v>920.5</v>
       </c>
       <c r="I11" s="1">
-        <v>-168.834000</v>
+        <v>-168.834</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>75811.908290</v>
+        <v>75811.908290000007</v>
       </c>
       <c r="L11" s="1">
-        <v>21.058863</v>
+        <v>21.058862999999999</v>
       </c>
       <c r="M11" s="1">
-        <v>944.461000</v>
+        <v>944.46100000000001</v>
       </c>
       <c r="N11" s="1">
-        <v>-120.339000</v>
+        <v>-120.339</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>75822.436862</v>
+        <v>75822.436862000002</v>
       </c>
       <c r="Q11" s="1">
         <v>21.061788</v>
       </c>
       <c r="R11" s="1">
-        <v>951.706000</v>
+        <v>951.70600000000002</v>
       </c>
       <c r="S11" s="1">
-        <v>-104.284000</v>
+        <v>-104.28400000000001</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>75833.314096</v>
+        <v>75833.314096000002</v>
       </c>
       <c r="V11" s="1">
         <v>21.064809</v>
       </c>
       <c r="W11" s="1">
-        <v>958.722000</v>
+        <v>958.72199999999998</v>
       </c>
       <c r="X11" s="1">
-        <v>-89.306200</v>
+        <v>-89.306200000000004</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>75843.848164</v>
+        <v>75843.848163999995</v>
       </c>
       <c r="AA11" s="1">
         <v>21.067736</v>
       </c>
       <c r="AB11" s="1">
-        <v>966.316000</v>
+        <v>966.31600000000003</v>
       </c>
       <c r="AC11" s="1">
-        <v>-77.575800</v>
+        <v>-77.575800000000001</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>75854.101429</v>
+        <v>75854.101429000002</v>
       </c>
       <c r="AF11" s="1">
         <v>21.070584</v>
       </c>
       <c r="AG11" s="1">
-        <v>971.281000</v>
+        <v>971.28099999999995</v>
       </c>
       <c r="AH11" s="1">
-        <v>-75.206400</v>
+        <v>-75.206400000000002</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>75864.272391</v>
+        <v>75864.272391000006</v>
       </c>
       <c r="AK11" s="1">
-        <v>21.073409</v>
+        <v>21.073409000000002</v>
       </c>
       <c r="AL11" s="1">
-        <v>978.656000</v>
+        <v>978.65599999999995</v>
       </c>
       <c r="AM11" s="1">
-        <v>-79.617600</v>
+        <v>-79.617599999999996</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>75874.626873</v>
+        <v>75874.626873000001</v>
       </c>
       <c r="AP11" s="1">
-        <v>21.076285</v>
+        <v>21.076284999999999</v>
       </c>
       <c r="AQ11" s="1">
-        <v>986.840000</v>
+        <v>986.84</v>
       </c>
       <c r="AR11" s="1">
-        <v>-90.888000</v>
+        <v>-90.888000000000005</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>75885.368237</v>
+        <v>75885.368237000002</v>
       </c>
       <c r="AU11" s="1">
         <v>21.079269</v>
       </c>
       <c r="AV11" s="1">
-        <v>996.733000</v>
+        <v>996.73299999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-108.196000</v>
+        <v>-108.196</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>75896.319405</v>
+        <v>75896.319405000002</v>
       </c>
       <c r="AZ11" s="1">
-        <v>21.082311</v>
+        <v>21.082311000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB11" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>75907.320670</v>
+        <v>75907.320670000001</v>
       </c>
       <c r="BE11" s="1">
-        <v>21.085367</v>
+        <v>21.085367000000002</v>
       </c>
       <c r="BF11" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG11" s="1">
-        <v>-194.471000</v>
+        <v>-194.471</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>75918.432048</v>
+        <v>75918.432048000002</v>
       </c>
       <c r="BJ11" s="1">
-        <v>21.088453</v>
+        <v>21.088453000000001</v>
       </c>
       <c r="BK11" s="1">
-        <v>1110.430000</v>
+        <v>1110.43</v>
       </c>
       <c r="BL11" s="1">
-        <v>-308.949000</v>
+        <v>-308.94900000000001</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
-        <v>75930.228400</v>
+        <v>75930.228400000007</v>
       </c>
       <c r="BO11" s="1">
-        <v>21.091730</v>
+        <v>21.091729999999998</v>
       </c>
       <c r="BP11" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-488.298000</v>
+        <v>-488.298</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>75940.687042</v>
+        <v>75940.687042000005</v>
       </c>
       <c r="BT11" s="1">
         <v>21.094635</v>
       </c>
       <c r="BU11" s="1">
-        <v>1338.850000</v>
+        <v>1338.85</v>
       </c>
       <c r="BV11" s="1">
-        <v>-684.031000</v>
+        <v>-684.03099999999995</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
-        <v>75951.860928</v>
+        <v>75951.860927999995</v>
       </c>
       <c r="BY11" s="1">
-        <v>21.097739</v>
+        <v>21.097739000000001</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1473.360000</v>
+        <v>1473.36</v>
       </c>
       <c r="CA11" s="1">
-        <v>-892.080000</v>
+        <v>-892.08</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>75963.691492</v>
+        <v>75963.691491999998</v>
       </c>
       <c r="CD11" s="1">
         <v>21.101025</v>
       </c>
       <c r="CE11" s="1">
-        <v>1822.680000</v>
+        <v>1822.68</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1385.010000</v>
+        <v>-1385.01</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>75790.991960</v>
+        <v>75790.991959999999</v>
       </c>
       <c r="B12" s="1">
-        <v>21.053053</v>
+        <v>21.053052999999998</v>
       </c>
       <c r="C12" s="1">
-        <v>902.353000</v>
+        <v>902.35299999999995</v>
       </c>
       <c r="D12" s="1">
-        <v>-197.720000</v>
+        <v>-197.72</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>75801.761594</v>
+        <v>75801.761593999996</v>
       </c>
       <c r="G12" s="1">
-        <v>21.056045</v>
+        <v>21.056045000000001</v>
       </c>
       <c r="H12" s="1">
-        <v>920.055000</v>
+        <v>920.05499999999995</v>
       </c>
       <c r="I12" s="1">
-        <v>-168.064000</v>
+        <v>-168.06399999999999</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
-        <v>75812.258461</v>
+        <v>75812.258461000005</v>
       </c>
       <c r="L12" s="1">
         <v>21.058961</v>
       </c>
       <c r="M12" s="1">
-        <v>944.486000</v>
+        <v>944.48599999999999</v>
       </c>
       <c r="N12" s="1">
-        <v>-120.507000</v>
+        <v>-120.50700000000001</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
-        <v>75822.786015</v>
+        <v>75822.786015000005</v>
       </c>
       <c r="Q12" s="1">
         <v>21.061885</v>
       </c>
       <c r="R12" s="1">
-        <v>951.729000</v>
+        <v>951.72900000000004</v>
       </c>
       <c r="S12" s="1">
-        <v>-104.335000</v>
+        <v>-104.33499999999999</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>75833.659808</v>
+        <v>75833.659807999997</v>
       </c>
       <c r="V12" s="1">
-        <v>21.064906</v>
+        <v>21.064906000000001</v>
       </c>
       <c r="W12" s="1">
-        <v>958.671000</v>
+        <v>958.67100000000005</v>
       </c>
       <c r="X12" s="1">
-        <v>-89.268300</v>
+        <v>-89.268299999999996</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
         <v>75844.520718</v>
       </c>
       <c r="AA12" s="1">
-        <v>21.067922</v>
+        <v>21.067921999999999</v>
       </c>
       <c r="AB12" s="1">
-        <v>966.329000</v>
+        <v>966.32899999999995</v>
       </c>
       <c r="AC12" s="1">
-        <v>-77.543300</v>
+        <v>-77.543300000000002</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>75854.763093</v>
+        <v>75854.763093000001</v>
       </c>
       <c r="AF12" s="1">
-        <v>21.070768</v>
+        <v>21.070768000000001</v>
       </c>
       <c r="AG12" s="1">
-        <v>971.273000</v>
+        <v>971.27300000000002</v>
       </c>
       <c r="AH12" s="1">
-        <v>-75.207500</v>
+        <v>-75.207499999999996</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>75864.657825</v>
+        <v>75864.657825000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>21.073516</v>
+        <v>21.073516000000001</v>
       </c>
       <c r="AL12" s="1">
-        <v>978.655000</v>
+        <v>978.65499999999997</v>
       </c>
       <c r="AM12" s="1">
-        <v>-79.613900</v>
+        <v>-79.613900000000001</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>75875.055912</v>
+        <v>75875.055911999996</v>
       </c>
       <c r="AP12" s="1">
         <v>21.076404</v>
       </c>
       <c r="AQ12" s="1">
-        <v>986.834000</v>
+        <v>986.83399999999995</v>
       </c>
       <c r="AR12" s="1">
-        <v>-90.878300</v>
+        <v>-90.878299999999996</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
         <v>75885.736267</v>
       </c>
       <c r="AU12" s="1">
-        <v>21.079371</v>
+        <v>21.079370999999998</v>
       </c>
       <c r="AV12" s="1">
-        <v>996.736000</v>
+        <v>996.73599999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-108.199000</v>
+        <v>-108.199</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>75896.677516</v>
+        <v>75896.677515999996</v>
       </c>
       <c r="AZ12" s="1">
-        <v>21.082410</v>
+        <v>21.082409999999999</v>
       </c>
       <c r="BA12" s="1">
-        <v>1005.010000</v>
+        <v>1005.01</v>
       </c>
       <c r="BB12" s="1">
-        <v>-123.643000</v>
+        <v>-123.643</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>75907.686222</v>
+        <v>75907.686222000004</v>
       </c>
       <c r="BE12" s="1">
-        <v>21.085468</v>
+        <v>21.085467999999999</v>
       </c>
       <c r="BF12" s="1">
-        <v>1043.740000</v>
+        <v>1043.74</v>
       </c>
       <c r="BG12" s="1">
-        <v>-194.468000</v>
+        <v>-194.46799999999999</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>75918.847955</v>
+        <v>75918.847955000005</v>
       </c>
       <c r="BJ12" s="1">
         <v>21.088569</v>
       </c>
       <c r="BK12" s="1">
-        <v>1110.430000</v>
+        <v>1110.43</v>
       </c>
       <c r="BL12" s="1">
-        <v>-308.942000</v>
+        <v>-308.94200000000001</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>75930.614327</v>
+        <v>75930.614327000003</v>
       </c>
       <c r="BO12" s="1">
-        <v>21.091837</v>
+        <v>21.091837000000002</v>
       </c>
       <c r="BP12" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-488.316000</v>
+        <v>-488.31599999999997</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
-        <v>75941.090787</v>
+        <v>75941.090786999994</v>
       </c>
       <c r="BT12" s="1">
-        <v>21.094747</v>
+        <v>21.094747000000002</v>
       </c>
       <c r="BU12" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="BV12" s="1">
-        <v>-684.023000</v>
+        <v>-684.02300000000002</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>75952.285508</v>
+        <v>75952.285508000001</v>
       </c>
       <c r="BY12" s="1">
-        <v>21.097857</v>
+        <v>21.097857000000001</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1473.290000</v>
+        <v>1473.29</v>
       </c>
       <c r="CA12" s="1">
-        <v>-892.186000</v>
+        <v>-892.18600000000004</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
-        <v>75964.230675</v>
+        <v>75964.230674999999</v>
       </c>
       <c r="CD12" s="1">
-        <v>21.101175</v>
+        <v>21.101175000000001</v>
       </c>
       <c r="CE12" s="1">
-        <v>1822.020000</v>
+        <v>1822.02</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1383.920000</v>
+        <v>-1383.92</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>75791.684873</v>
+        <v>75791.684873000006</v>
       </c>
       <c r="B13" s="1">
-        <v>21.053246</v>
+        <v>21.053246000000001</v>
       </c>
       <c r="C13" s="1">
-        <v>902.234000</v>
+        <v>902.23400000000004</v>
       </c>
       <c r="D13" s="1">
-        <v>-197.503000</v>
+        <v>-197.50299999999999</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>75802.110281</v>
+        <v>75802.110281000001</v>
       </c>
       <c r="G13" s="1">
-        <v>21.056142</v>
+        <v>21.056142000000001</v>
       </c>
       <c r="H13" s="1">
-        <v>920.632000</v>
+        <v>920.63199999999995</v>
       </c>
       <c r="I13" s="1">
-        <v>-168.149000</v>
+        <v>-168.149</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
-        <v>75812.607611</v>
+        <v>75812.607610999999</v>
       </c>
       <c r="L13" s="1">
         <v>21.059058</v>
       </c>
       <c r="M13" s="1">
-        <v>944.390000</v>
+        <v>944.39</v>
       </c>
       <c r="N13" s="1">
-        <v>-120.331000</v>
+        <v>-120.331</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
-        <v>75823.133214</v>
+        <v>75823.133214000001</v>
       </c>
       <c r="Q13" s="1">
-        <v>21.061981</v>
+        <v>21.061980999999999</v>
       </c>
       <c r="R13" s="1">
-        <v>951.722000</v>
+        <v>951.72199999999998</v>
       </c>
       <c r="S13" s="1">
-        <v>-104.345000</v>
+        <v>-104.345</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>75834.304606</v>
+        <v>75834.304606000005</v>
       </c>
       <c r="V13" s="1">
         <v>21.065085</v>
       </c>
       <c r="W13" s="1">
-        <v>958.807000</v>
+        <v>958.80700000000002</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.364700</v>
+        <v>-89.364699999999999</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>75844.892241</v>
+        <v>75844.892240999994</v>
       </c>
       <c r="AA13" s="1">
         <v>21.068026</v>
       </c>
       <c r="AB13" s="1">
-        <v>966.382000</v>
+        <v>966.38199999999995</v>
       </c>
       <c r="AC13" s="1">
-        <v>-77.538700</v>
+        <v>-77.538700000000006</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>75855.139093</v>
+        <v>75855.139093000005</v>
       </c>
       <c r="AF13" s="1">
-        <v>21.070872</v>
+        <v>21.070872000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>971.249000</v>
+        <v>971.24900000000002</v>
       </c>
       <c r="AH13" s="1">
-        <v>-75.168500</v>
+        <v>-75.168499999999995</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
-        <v>75865.005478</v>
+        <v>75865.005478000006</v>
       </c>
       <c r="AK13" s="1">
-        <v>21.073613</v>
+        <v>21.073613000000002</v>
       </c>
       <c r="AL13" s="1">
-        <v>978.690000</v>
+        <v>978.69</v>
       </c>
       <c r="AM13" s="1">
-        <v>-79.592100</v>
+        <v>-79.592100000000002</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>75875.418489</v>
+        <v>75875.418489000003</v>
       </c>
       <c r="AP13" s="1">
-        <v>21.076505</v>
+        <v>21.076505000000001</v>
       </c>
       <c r="AQ13" s="1">
-        <v>986.830000</v>
+        <v>986.83</v>
       </c>
       <c r="AR13" s="1">
-        <v>-90.882800</v>
+        <v>-90.882800000000003</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>75886.099370</v>
+        <v>75886.099369999996</v>
       </c>
       <c r="AU13" s="1">
-        <v>21.079472</v>
+        <v>21.079471999999999</v>
       </c>
       <c r="AV13" s="1">
-        <v>996.717000</v>
+        <v>996.71699999999998</v>
       </c>
       <c r="AW13" s="1">
-        <v>-108.203000</v>
+        <v>-108.203</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>75897.102130</v>
+        <v>75897.102129999999</v>
       </c>
       <c r="AZ13" s="1">
         <v>21.082528</v>
       </c>
       <c r="BA13" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB13" s="1">
-        <v>-123.619000</v>
+        <v>-123.619</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>75908.130638</v>
+        <v>75908.130638000002</v>
       </c>
       <c r="BE13" s="1">
-        <v>21.085592</v>
+        <v>21.085591999999998</v>
       </c>
       <c r="BF13" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG13" s="1">
-        <v>-194.468000</v>
+        <v>-194.46799999999999</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>75919.197375</v>
+        <v>75919.197375000003</v>
       </c>
       <c r="BJ13" s="1">
         <v>21.088666</v>
       </c>
       <c r="BK13" s="1">
-        <v>1110.460000</v>
+        <v>1110.46</v>
       </c>
       <c r="BL13" s="1">
-        <v>-308.941000</v>
+        <v>-308.94099999999997</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>75931.035886</v>
+        <v>75931.035885999998</v>
       </c>
       <c r="BO13" s="1">
-        <v>21.091954</v>
+        <v>21.091954000000001</v>
       </c>
       <c r="BP13" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-488.291000</v>
+        <v>-488.291</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>75941.533218</v>
+        <v>75941.533217999997</v>
       </c>
       <c r="BT13" s="1">
-        <v>21.094870</v>
+        <v>21.09487</v>
       </c>
       <c r="BU13" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="BV13" s="1">
-        <v>-684.009000</v>
+        <v>-684.00900000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>75952.703122</v>
+        <v>75952.703122000006</v>
       </c>
       <c r="BY13" s="1">
         <v>21.097973</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1473.400000</v>
+        <v>1473.4</v>
       </c>
       <c r="CA13" s="1">
-        <v>-892.130000</v>
+        <v>-892.13</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>75964.769300</v>
+        <v>75964.7693</v>
       </c>
       <c r="CD13" s="1">
-        <v>21.101325</v>
+        <v>21.101324999999999</v>
       </c>
       <c r="CE13" s="1">
-        <v>1821.840000</v>
+        <v>1821.84</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>75792.022646</v>
+        <v>75792.022645999998</v>
       </c>
       <c r="B14" s="1">
-        <v>21.053340</v>
+        <v>21.053339999999999</v>
       </c>
       <c r="C14" s="1">
-        <v>902.312000</v>
+        <v>902.31200000000001</v>
       </c>
       <c r="D14" s="1">
-        <v>-197.461000</v>
+        <v>-197.46100000000001</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>75802.457481</v>
+        <v>75802.457481000005</v>
       </c>
       <c r="G14" s="1">
         <v>21.056238</v>
       </c>
       <c r="H14" s="1">
-        <v>920.609000</v>
+        <v>920.60900000000004</v>
       </c>
       <c r="I14" s="1">
-        <v>-167.881000</v>
+        <v>-167.881</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>75813.263322</v>
+        <v>75813.263321999999</v>
       </c>
       <c r="L14" s="1">
-        <v>21.059240</v>
+        <v>21.059239999999999</v>
       </c>
       <c r="M14" s="1">
-        <v>944.371000</v>
+        <v>944.37099999999998</v>
       </c>
       <c r="N14" s="1">
-        <v>-120.363000</v>
+        <v>-120.363</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>75823.788428</v>
       </c>
       <c r="Q14" s="1">
-        <v>21.062163</v>
+        <v>21.062163000000002</v>
       </c>
       <c r="R14" s="1">
-        <v>951.676000</v>
+        <v>951.67600000000004</v>
       </c>
       <c r="S14" s="1">
-        <v>-104.379000</v>
+        <v>-104.379</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>75834.689503</v>
+        <v>75834.689503000001</v>
       </c>
       <c r="V14" s="1">
         <v>21.065192</v>
       </c>
       <c r="W14" s="1">
-        <v>958.619000</v>
+        <v>958.61900000000003</v>
       </c>
       <c r="X14" s="1">
-        <v>-89.319400</v>
+        <v>-89.319400000000002</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>75845.242912</v>
+        <v>75845.242912000002</v>
       </c>
       <c r="AA14" s="1">
         <v>21.068123</v>
       </c>
       <c r="AB14" s="1">
-        <v>966.333000</v>
+        <v>966.33299999999997</v>
       </c>
       <c r="AC14" s="1">
-        <v>-77.588300</v>
+        <v>-77.588300000000004</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>75855.484803</v>
+        <v>75855.484802999999</v>
       </c>
       <c r="AF14" s="1">
-        <v>21.070968</v>
+        <v>21.070968000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>971.274000</v>
+        <v>971.274</v>
       </c>
       <c r="AH14" s="1">
-        <v>-75.155100</v>
+        <v>-75.155100000000004</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>75865.352181</v>
+        <v>75865.352180999995</v>
       </c>
       <c r="AK14" s="1">
-        <v>21.073709</v>
+        <v>21.073709000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>978.649000</v>
+        <v>978.649</v>
       </c>
       <c r="AM14" s="1">
-        <v>-79.621000</v>
+        <v>-79.620999999999995</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
         <v>75875.988887</v>
       </c>
       <c r="AP14" s="1">
-        <v>21.076664</v>
+        <v>21.076664000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>986.856000</v>
+        <v>986.85599999999999</v>
       </c>
       <c r="AR14" s="1">
-        <v>-90.883300</v>
+        <v>-90.883300000000006</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>75886.528378</v>
+        <v>75886.528378000003</v>
       </c>
       <c r="AU14" s="1">
-        <v>21.079591</v>
+        <v>21.079591000000001</v>
       </c>
       <c r="AV14" s="1">
-        <v>996.753000</v>
+        <v>996.75300000000004</v>
       </c>
       <c r="AW14" s="1">
-        <v>-108.197000</v>
+        <v>-108.197</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>75897.393771</v>
+        <v>75897.393771000003</v>
       </c>
       <c r="AZ14" s="1">
-        <v>21.082609</v>
+        <v>21.082609000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1005.050000</v>
+        <v>1005.05</v>
       </c>
       <c r="BB14" s="1">
-        <v>-123.614000</v>
+        <v>-123.614</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>75908.406413</v>
+        <v>75908.406413000004</v>
       </c>
       <c r="BE14" s="1">
-        <v>21.085668</v>
+        <v>21.085667999999998</v>
       </c>
       <c r="BF14" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG14" s="1">
-        <v>-194.487000</v>
+        <v>-194.48699999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>75919.574879</v>
+        <v>75919.574879000007</v>
       </c>
       <c r="BJ14" s="1">
-        <v>21.088771</v>
+        <v>21.088771000000001</v>
       </c>
       <c r="BK14" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL14" s="1">
-        <v>-308.947000</v>
+        <v>-308.947</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>75931.429716</v>
+        <v>75931.429715999999</v>
       </c>
       <c r="BO14" s="1">
-        <v>21.092064</v>
+        <v>21.092064000000001</v>
       </c>
       <c r="BP14" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-488.290000</v>
+        <v>-488.29</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>75941.939938</v>
+        <v>75941.939937999996</v>
       </c>
       <c r="BT14" s="1">
-        <v>21.094983</v>
+        <v>21.094982999999999</v>
       </c>
       <c r="BU14" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="BV14" s="1">
-        <v>-683.953000</v>
+        <v>-683.95299999999997</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>75953.149025</v>
+        <v>75953.149025000006</v>
       </c>
       <c r="BY14" s="1">
-        <v>21.098097</v>
+        <v>21.098096999999999</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1473.410000</v>
+        <v>1473.41</v>
       </c>
       <c r="CA14" s="1">
-        <v>-892.079000</v>
+        <v>-892.07899999999995</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>75965.308946</v>
+        <v>75965.308946000005</v>
       </c>
       <c r="CD14" s="1">
-        <v>21.101475</v>
+        <v>21.101475000000001</v>
       </c>
       <c r="CE14" s="1">
-        <v>1822.910000</v>
+        <v>1822.91</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1383.830000</v>
+        <v>-1383.83</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>75792.684807</v>
+        <v>75792.684806999998</v>
       </c>
       <c r="B15" s="1">
-        <v>21.053524</v>
+        <v>21.053523999999999</v>
       </c>
       <c r="C15" s="1">
-        <v>902.364000</v>
+        <v>902.36400000000003</v>
       </c>
       <c r="D15" s="1">
-        <v>-197.718000</v>
+        <v>-197.71799999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>75803.116169</v>
+        <v>75803.116169000001</v>
       </c>
       <c r="G15" s="1">
         <v>21.056421</v>
       </c>
       <c r="H15" s="1">
-        <v>920.331000</v>
+        <v>920.33100000000002</v>
       </c>
       <c r="I15" s="1">
-        <v>-167.883000</v>
+        <v>-167.88300000000001</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>75813.640283</v>
+        <v>75813.640283000001</v>
       </c>
       <c r="L15" s="1">
         <v>21.059345</v>
       </c>
       <c r="M15" s="1">
-        <v>944.417000</v>
+        <v>944.41700000000003</v>
       </c>
       <c r="N15" s="1">
-        <v>-120.347000</v>
+        <v>-120.34699999999999</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>75824.181297</v>
+        <v>75824.181297000003</v>
       </c>
       <c r="Q15" s="1">
-        <v>21.062273</v>
+        <v>21.062273000000001</v>
       </c>
       <c r="R15" s="1">
-        <v>951.671000</v>
+        <v>951.67100000000005</v>
       </c>
       <c r="S15" s="1">
-        <v>-104.317000</v>
+        <v>-104.31699999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>75835.034750</v>
+        <v>75835.034750000006</v>
       </c>
       <c r="V15" s="1">
-        <v>21.065287</v>
+        <v>21.065287000000001</v>
       </c>
       <c r="W15" s="1">
-        <v>958.824000</v>
+        <v>958.82399999999996</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.267400</v>
+        <v>-89.267399999999995</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>75845.591072</v>
+        <v>75845.591071999996</v>
       </c>
       <c r="AA15" s="1">
-        <v>21.068220</v>
+        <v>21.06822</v>
       </c>
       <c r="AB15" s="1">
-        <v>966.312000</v>
+        <v>966.31200000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-77.561100</v>
+        <v>-77.561099999999996</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>75855.829523</v>
+        <v>75855.829522999993</v>
       </c>
       <c r="AF15" s="1">
         <v>21.071064</v>
       </c>
       <c r="AG15" s="1">
-        <v>971.252000</v>
+        <v>971.25199999999995</v>
       </c>
       <c r="AH15" s="1">
-        <v>-75.189900</v>
+        <v>-75.189899999999994</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
         <v>75865.783205</v>
@@ -3927,2386 +4343,2386 @@
         <v>21.073829</v>
       </c>
       <c r="AL15" s="1">
-        <v>978.677000</v>
+        <v>978.67700000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-79.598200</v>
+        <v>-79.598200000000006</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>75876.139671</v>
+        <v>75876.139670999997</v>
       </c>
       <c r="AP15" s="1">
         <v>21.076705</v>
       </c>
       <c r="AQ15" s="1">
-        <v>986.846000</v>
+        <v>986.846</v>
       </c>
       <c r="AR15" s="1">
-        <v>-90.884400</v>
+        <v>-90.884399999999999</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>75886.829449</v>
+        <v>75886.829448999997</v>
       </c>
       <c r="AU15" s="1">
-        <v>21.079675</v>
+        <v>21.079675000000002</v>
       </c>
       <c r="AV15" s="1">
-        <v>996.737000</v>
+        <v>996.73699999999997</v>
       </c>
       <c r="AW15" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>75897.754827</v>
+        <v>75897.754826999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>21.082710</v>
+        <v>21.082709999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB15" s="1">
-        <v>-123.624000</v>
+        <v>-123.624</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>75908.768492</v>
+        <v>75908.768492000003</v>
       </c>
       <c r="BE15" s="1">
-        <v>21.085769</v>
+        <v>21.085768999999999</v>
       </c>
       <c r="BF15" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG15" s="1">
-        <v>-194.475000</v>
+        <v>-194.47499999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
         <v>75919.949838</v>
       </c>
       <c r="BJ15" s="1">
-        <v>21.088875</v>
+        <v>21.088875000000002</v>
       </c>
       <c r="BK15" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL15" s="1">
-        <v>-308.940000</v>
+        <v>-308.94</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>75931.866191</v>
+        <v>75931.866190999994</v>
       </c>
       <c r="BO15" s="1">
-        <v>21.092185</v>
+        <v>21.092185000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-488.297000</v>
+        <v>-488.29700000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>75942.802981</v>
+        <v>75942.802981000001</v>
       </c>
       <c r="BT15" s="1">
-        <v>21.095223</v>
+        <v>21.095223000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1338.880000</v>
+        <v>1338.88</v>
       </c>
       <c r="BV15" s="1">
-        <v>-683.916000</v>
+        <v>-683.91600000000005</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
-        <v>75953.571617</v>
+        <v>75953.571616999994</v>
       </c>
       <c r="BY15" s="1">
-        <v>21.098214</v>
+        <v>21.098213999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1473.330000</v>
+        <v>1473.33</v>
       </c>
       <c r="CA15" s="1">
-        <v>-892.131000</v>
+        <v>-892.13099999999997</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>75965.849586</v>
+        <v>75965.849585999997</v>
       </c>
       <c r="CD15" s="1">
-        <v>21.101625</v>
+        <v>21.101624999999999</v>
       </c>
       <c r="CE15" s="1">
-        <v>1821.470000</v>
+        <v>1821.47</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1384.680000</v>
+        <v>-1384.68</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>75793.051879</v>
+        <v>75793.051879000006</v>
       </c>
       <c r="B16" s="1">
-        <v>21.053626</v>
+        <v>21.053626000000001</v>
       </c>
       <c r="C16" s="1">
-        <v>902.355000</v>
+        <v>902.35500000000002</v>
       </c>
       <c r="D16" s="1">
-        <v>-197.653000</v>
+        <v>-197.65299999999999</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>75803.489159</v>
+        <v>75803.489159000004</v>
       </c>
       <c r="G16" s="1">
-        <v>21.056525</v>
+        <v>21.056525000000001</v>
       </c>
       <c r="H16" s="1">
-        <v>920.205000</v>
+        <v>920.20500000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-168.223000</v>
+        <v>-168.22300000000001</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>75813.987977</v>
+        <v>75813.987976999997</v>
       </c>
       <c r="L16" s="1">
         <v>21.059441</v>
       </c>
       <c r="M16" s="1">
-        <v>944.493000</v>
+        <v>944.49300000000005</v>
       </c>
       <c r="N16" s="1">
-        <v>-120.503000</v>
+        <v>-120.503</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>75824.529984</v>
+        <v>75824.529983999993</v>
       </c>
       <c r="Q16" s="1">
         <v>21.062369</v>
       </c>
       <c r="R16" s="1">
-        <v>951.704000</v>
+        <v>951.70399999999995</v>
       </c>
       <c r="S16" s="1">
-        <v>-104.295000</v>
+        <v>-104.295</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>75835.382413</v>
+        <v>75835.382412999999</v>
       </c>
       <c r="V16" s="1">
-        <v>21.065384</v>
+        <v>21.065384000000002</v>
       </c>
       <c r="W16" s="1">
-        <v>958.737000</v>
+        <v>958.73699999999997</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.309300</v>
+        <v>-89.309299999999993</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>75846.013695</v>
+        <v>75846.013695000001</v>
       </c>
       <c r="AA16" s="1">
         <v>21.068337</v>
       </c>
       <c r="AB16" s="1">
-        <v>966.408000</v>
+        <v>966.40800000000002</v>
       </c>
       <c r="AC16" s="1">
-        <v>-77.545400</v>
+        <v>-77.545400000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>75856.257041</v>
+        <v>75856.257041000004</v>
       </c>
       <c r="AF16" s="1">
-        <v>21.071183</v>
+        <v>21.071183000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>971.259000</v>
+        <v>971.25900000000001</v>
       </c>
       <c r="AH16" s="1">
-        <v>-75.138900</v>
+        <v>-75.138900000000007</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>75866.059974</v>
+        <v>75866.059974000003</v>
       </c>
       <c r="AK16" s="1">
-        <v>21.073906</v>
+        <v>21.073906000000001</v>
       </c>
       <c r="AL16" s="1">
-        <v>978.663000</v>
+        <v>978.66300000000001</v>
       </c>
       <c r="AM16" s="1">
-        <v>-79.620000</v>
+        <v>-79.62</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
-        <v>75876.496791</v>
+        <v>75876.496790999998</v>
       </c>
       <c r="AP16" s="1">
         <v>21.076805</v>
       </c>
       <c r="AQ16" s="1">
-        <v>986.832000</v>
+        <v>986.83199999999999</v>
       </c>
       <c r="AR16" s="1">
-        <v>-90.884800</v>
+        <v>-90.884799999999998</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>75887.191565</v>
+        <v>75887.191565000001</v>
       </c>
       <c r="AU16" s="1">
-        <v>21.079775</v>
+        <v>21.079775000000001</v>
       </c>
       <c r="AV16" s="1">
-        <v>996.744000</v>
+        <v>996.74400000000003</v>
       </c>
       <c r="AW16" s="1">
-        <v>-108.210000</v>
+        <v>-108.21</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
-        <v>75898.111946</v>
+        <v>75898.111946000005</v>
       </c>
       <c r="AZ16" s="1">
-        <v>21.082809</v>
+        <v>21.082809000000001</v>
       </c>
       <c r="BA16" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB16" s="1">
-        <v>-123.635000</v>
+        <v>-123.63500000000001</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>75909.419243</v>
+        <v>75909.419242999997</v>
       </c>
       <c r="BE16" s="1">
-        <v>21.085950</v>
+        <v>21.08595</v>
       </c>
       <c r="BF16" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG16" s="1">
-        <v>-194.487000</v>
+        <v>-194.48699999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>75920.700750</v>
+        <v>75920.700750000004</v>
       </c>
       <c r="BJ16" s="1">
         <v>21.089084</v>
       </c>
       <c r="BK16" s="1">
-        <v>1110.470000</v>
+        <v>1110.47</v>
       </c>
       <c r="BL16" s="1">
-        <v>-308.928000</v>
+        <v>-308.928</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>75932.251581</v>
+        <v>75932.251581000004</v>
       </c>
       <c r="BO16" s="1">
         <v>21.092292</v>
       </c>
       <c r="BP16" s="1">
-        <v>1218.400000</v>
+        <v>1218.4000000000001</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-488.299000</v>
+        <v>-488.29899999999998</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>75943.233998</v>
+        <v>75943.233997999996</v>
       </c>
       <c r="BT16" s="1">
         <v>21.095343</v>
       </c>
       <c r="BU16" s="1">
-        <v>1338.980000</v>
+        <v>1338.98</v>
       </c>
       <c r="BV16" s="1">
-        <v>-683.924000</v>
+        <v>-683.92399999999998</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
         <v>75953.993745</v>
       </c>
       <c r="BY16" s="1">
-        <v>21.098332</v>
+        <v>21.098331999999999</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1473.360000</v>
+        <v>1473.36</v>
       </c>
       <c r="CA16" s="1">
-        <v>-892.075000</v>
+        <v>-892.07500000000005</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>75966.699728</v>
+        <v>75966.699728000007</v>
       </c>
       <c r="CD16" s="1">
         <v>21.101861</v>
       </c>
       <c r="CE16" s="1">
-        <v>1822.280000</v>
+        <v>1822.28</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1383.920000</v>
+        <v>-1383.92</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>75793.398549</v>
+        <v>75793.398549000005</v>
       </c>
       <c r="B17" s="1">
         <v>21.053722</v>
       </c>
       <c r="C17" s="1">
-        <v>902.191000</v>
+        <v>902.19100000000003</v>
       </c>
       <c r="D17" s="1">
-        <v>-197.611000</v>
+        <v>-197.61099999999999</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
-        <v>75803.834871</v>
+        <v>75803.834870999999</v>
       </c>
       <c r="G17" s="1">
         <v>21.056621</v>
       </c>
       <c r="H17" s="1">
-        <v>920.452000</v>
+        <v>920.452</v>
       </c>
       <c r="I17" s="1">
-        <v>-168.062000</v>
+        <v>-168.06200000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>75814.334218</v>
+        <v>75814.334218000004</v>
       </c>
       <c r="L17" s="1">
-        <v>21.059537</v>
+        <v>21.059536999999999</v>
       </c>
       <c r="M17" s="1">
-        <v>944.493000</v>
+        <v>944.49300000000005</v>
       </c>
       <c r="N17" s="1">
-        <v>-120.431000</v>
+        <v>-120.431</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
-        <v>75824.880124</v>
+        <v>75824.880124000003</v>
       </c>
       <c r="Q17" s="1">
-        <v>21.062467</v>
+        <v>21.062467000000002</v>
       </c>
       <c r="R17" s="1">
-        <v>951.737000</v>
+        <v>951.73699999999997</v>
       </c>
       <c r="S17" s="1">
-        <v>-104.323000</v>
+        <v>-104.32299999999999</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
-        <v>75835.805996</v>
+        <v>75835.805995999996</v>
       </c>
       <c r="V17" s="1">
-        <v>21.065502</v>
+        <v>21.065501999999999</v>
       </c>
       <c r="W17" s="1">
-        <v>958.658000</v>
+        <v>958.65800000000002</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.359700</v>
+        <v>-89.359700000000004</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>75846.290462</v>
+        <v>75846.290462000004</v>
       </c>
       <c r="AA17" s="1">
-        <v>21.068414</v>
+        <v>21.068414000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>966.320000</v>
+        <v>966.32</v>
       </c>
       <c r="AC17" s="1">
-        <v>-77.550500</v>
+        <v>-77.5505</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>75856.517441</v>
+        <v>75856.517441000004</v>
       </c>
       <c r="AF17" s="1">
-        <v>21.071255</v>
+        <v>21.071255000000001</v>
       </c>
       <c r="AG17" s="1">
-        <v>971.263000</v>
+        <v>971.26300000000003</v>
       </c>
       <c r="AH17" s="1">
-        <v>-75.170100</v>
+        <v>-75.170100000000005</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>75866.410644</v>
+        <v>75866.410644000003</v>
       </c>
       <c r="AK17" s="1">
-        <v>21.074003</v>
+        <v>21.074003000000001</v>
       </c>
       <c r="AL17" s="1">
-        <v>978.674000</v>
+        <v>978.67399999999998</v>
       </c>
       <c r="AM17" s="1">
-        <v>-79.613800</v>
+        <v>-79.613799999999998</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>75876.859879</v>
+        <v>75876.859878999996</v>
       </c>
       <c r="AP17" s="1">
-        <v>21.076906</v>
+        <v>21.076906000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>986.837000</v>
+        <v>986.83699999999999</v>
       </c>
       <c r="AR17" s="1">
-        <v>-90.876000</v>
+        <v>-90.876000000000005</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>75887.556121</v>
+        <v>75887.556121000001</v>
       </c>
       <c r="AU17" s="1">
         <v>21.079877</v>
       </c>
       <c r="AV17" s="1">
-        <v>996.733000</v>
+        <v>996.73299999999995</v>
       </c>
       <c r="AW17" s="1">
-        <v>-108.187000</v>
+        <v>-108.187</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>75898.836601</v>
+        <v>75898.836601000003</v>
       </c>
       <c r="AZ17" s="1">
-        <v>21.083010</v>
+        <v>21.083010000000002</v>
       </c>
       <c r="BA17" s="1">
-        <v>1005.040000</v>
+        <v>1005.04</v>
       </c>
       <c r="BB17" s="1">
-        <v>-123.644000</v>
+        <v>-123.64400000000001</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>75909.861210</v>
+        <v>75909.861210000003</v>
       </c>
       <c r="BE17" s="1">
-        <v>21.086073</v>
+        <v>21.086072999999999</v>
       </c>
       <c r="BF17" s="1">
-        <v>1043.750000</v>
+        <v>1043.75</v>
       </c>
       <c r="BG17" s="1">
-        <v>-194.481000</v>
+        <v>-194.48099999999999</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>75921.078205</v>
+        <v>75921.078204999998</v>
       </c>
       <c r="BJ17" s="1">
         <v>21.089188</v>
       </c>
       <c r="BK17" s="1">
-        <v>1110.450000</v>
+        <v>1110.45</v>
       </c>
       <c r="BL17" s="1">
-        <v>-308.940000</v>
+        <v>-308.94</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>75932.670206</v>
+        <v>75932.670205999995</v>
       </c>
       <c r="BO17" s="1">
-        <v>21.092408</v>
+        <v>21.092407999999999</v>
       </c>
       <c r="BP17" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-488.308000</v>
+        <v>-488.30799999999999</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>75943.966094</v>
+        <v>75943.966094000003</v>
       </c>
       <c r="BT17" s="1">
-        <v>21.095546</v>
+        <v>21.095545999999999</v>
       </c>
       <c r="BU17" s="1">
-        <v>1338.890000</v>
+        <v>1338.89</v>
       </c>
       <c r="BV17" s="1">
-        <v>-683.955000</v>
+        <v>-683.95500000000004</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>75954.759535</v>
+        <v>75954.759535000005</v>
       </c>
       <c r="BY17" s="1">
         <v>21.098544</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1473.390000</v>
+        <v>1473.39</v>
       </c>
       <c r="CA17" s="1">
-        <v>-892.155000</v>
+        <v>-892.15499999999997</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>75966.928879</v>
+        <v>75966.928878999999</v>
       </c>
       <c r="CD17" s="1">
-        <v>21.101925</v>
+        <v>21.101925000000001</v>
       </c>
       <c r="CE17" s="1">
-        <v>1822.330000</v>
+        <v>1822.33</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1383.750000</v>
+        <v>-1383.75</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>75793.739807</v>
+        <v>75793.739807000005</v>
       </c>
       <c r="B18" s="1">
-        <v>21.053817</v>
+        <v>21.053816999999999</v>
       </c>
       <c r="C18" s="1">
-        <v>902.305000</v>
+        <v>902.30499999999995</v>
       </c>
       <c r="D18" s="1">
-        <v>-197.570000</v>
+        <v>-197.57</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>75804.178600</v>
+        <v>75804.178599999999</v>
       </c>
       <c r="G18" s="1">
-        <v>21.056716</v>
+        <v>21.056716000000002</v>
       </c>
       <c r="H18" s="1">
-        <v>920.399000</v>
+        <v>920.399</v>
       </c>
       <c r="I18" s="1">
-        <v>-168.304000</v>
+        <v>-168.304</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>75814.770168</v>
+        <v>75814.770168000003</v>
       </c>
       <c r="L18" s="1">
-        <v>21.059658</v>
+        <v>21.059657999999999</v>
       </c>
       <c r="M18" s="1">
-        <v>944.466000</v>
+        <v>944.46600000000001</v>
       </c>
       <c r="N18" s="1">
-        <v>-120.327000</v>
+        <v>-120.327</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>75825.576506</v>
+        <v>75825.576505999998</v>
       </c>
       <c r="Q18" s="1">
-        <v>21.062660</v>
+        <v>21.062660000000001</v>
       </c>
       <c r="R18" s="1">
-        <v>951.728000</v>
+        <v>951.72799999999995</v>
       </c>
       <c r="S18" s="1">
-        <v>-104.296000</v>
+        <v>-104.29600000000001</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>75836.084253</v>
+        <v>75836.084252999994</v>
       </c>
       <c r="V18" s="1">
         <v>21.065579</v>
       </c>
       <c r="W18" s="1">
-        <v>958.679000</v>
+        <v>958.67899999999997</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.336100</v>
+        <v>-89.336100000000002</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
-        <v>75846.640606</v>
+        <v>75846.640606000001</v>
       </c>
       <c r="AA18" s="1">
-        <v>21.068511</v>
+        <v>21.068511000000001</v>
       </c>
       <c r="AB18" s="1">
-        <v>966.365000</v>
+        <v>966.36500000000001</v>
       </c>
       <c r="AC18" s="1">
-        <v>-77.553800</v>
+        <v>-77.553799999999995</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
-        <v>75856.865172</v>
+        <v>75856.865172000005</v>
       </c>
       <c r="AF18" s="1">
         <v>21.071351</v>
       </c>
       <c r="AG18" s="1">
-        <v>971.248000</v>
+        <v>971.24800000000005</v>
       </c>
       <c r="AH18" s="1">
-        <v>-75.222700</v>
+        <v>-75.222700000000003</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>75866.758835</v>
+        <v>75866.758835000001</v>
       </c>
       <c r="AK18" s="1">
-        <v>21.074100</v>
+        <v>21.074100000000001</v>
       </c>
       <c r="AL18" s="1">
-        <v>978.655000</v>
+        <v>978.65499999999997</v>
       </c>
       <c r="AM18" s="1">
-        <v>-79.598300</v>
+        <v>-79.598299999999995</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>75877.577086</v>
+        <v>75877.577086000005</v>
       </c>
       <c r="AP18" s="1">
         <v>21.077105</v>
       </c>
       <c r="AQ18" s="1">
-        <v>986.835000</v>
+        <v>986.83500000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-90.896300</v>
+        <v>-90.896299999999997</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>75888.288679</v>
+        <v>75888.288679000005</v>
       </c>
       <c r="AU18" s="1">
-        <v>21.080080</v>
+        <v>21.080079999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>996.748000</v>
+        <v>996.74800000000005</v>
       </c>
       <c r="AW18" s="1">
-        <v>-108.196000</v>
+        <v>-108.196</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>75899.211081</v>
+        <v>75899.211081000001</v>
       </c>
       <c r="AZ18" s="1">
-        <v>21.083114</v>
+        <v>21.083113999999998</v>
       </c>
       <c r="BA18" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB18" s="1">
-        <v>-123.621000</v>
+        <v>-123.621</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>75910.231691</v>
+        <v>75910.231690999994</v>
       </c>
       <c r="BE18" s="1">
-        <v>21.086175</v>
+        <v>21.086175000000001</v>
       </c>
       <c r="BF18" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG18" s="1">
-        <v>-194.490000</v>
+        <v>-194.49</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>75921.453677</v>
+        <v>75921.453676999998</v>
       </c>
       <c r="BJ18" s="1">
-        <v>21.089293</v>
+        <v>21.089293000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1110.450000</v>
+        <v>1110.45</v>
       </c>
       <c r="BL18" s="1">
-        <v>-308.935000</v>
+        <v>-308.935</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
-        <v>75933.398332</v>
+        <v>75933.398331999997</v>
       </c>
       <c r="BO18" s="1">
-        <v>21.092611</v>
+        <v>21.092611000000002</v>
       </c>
       <c r="BP18" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-488.309000</v>
+        <v>-488.30900000000003</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>75944.077198</v>
+        <v>75944.077197999999</v>
       </c>
       <c r="BT18" s="1">
-        <v>21.095577</v>
+        <v>21.095576999999999</v>
       </c>
       <c r="BU18" s="1">
-        <v>1338.900000</v>
+        <v>1338.9</v>
       </c>
       <c r="BV18" s="1">
-        <v>-683.962000</v>
+        <v>-683.96199999999999</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
-        <v>75954.875617</v>
+        <v>75954.875616999998</v>
       </c>
       <c r="BY18" s="1">
-        <v>21.098577</v>
+        <v>21.098576999999999</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1473.370000</v>
+        <v>1473.37</v>
       </c>
       <c r="CA18" s="1">
-        <v>-892.173000</v>
+        <v>-892.173</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>75967.446736</v>
+        <v>75967.446735999998</v>
       </c>
       <c r="CD18" s="1">
         <v>21.102069</v>
       </c>
       <c r="CE18" s="1">
-        <v>1821.290000</v>
+        <v>1821.29</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1384.460000</v>
+        <v>-1384.46</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
-        <v>75794.163380</v>
+        <v>75794.163379999998</v>
       </c>
       <c r="B19" s="1">
-        <v>21.053934</v>
+        <v>21.053934000000002</v>
       </c>
       <c r="C19" s="1">
-        <v>902.298000</v>
+        <v>902.298</v>
       </c>
       <c r="D19" s="1">
-        <v>-197.641000</v>
+        <v>-197.64099999999999</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>75804.612102</v>
+        <v>75804.612101999999</v>
       </c>
       <c r="G19" s="1">
-        <v>21.056837</v>
+        <v>21.056837000000002</v>
       </c>
       <c r="H19" s="1">
-        <v>920.528000</v>
+        <v>920.52800000000002</v>
       </c>
       <c r="I19" s="1">
-        <v>-168.144000</v>
+        <v>-168.14400000000001</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>75815.038040</v>
+        <v>75815.038039999999</v>
       </c>
       <c r="L19" s="1">
-        <v>21.059733</v>
+        <v>21.059733000000001</v>
       </c>
       <c r="M19" s="1">
-        <v>944.450000</v>
+        <v>944.45</v>
       </c>
       <c r="N19" s="1">
-        <v>-120.395000</v>
+        <v>-120.395</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>75825.925690</v>
+        <v>75825.925690000004</v>
       </c>
       <c r="Q19" s="1">
-        <v>21.062757</v>
+        <v>21.062757000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>951.702000</v>
+        <v>951.702</v>
       </c>
       <c r="S19" s="1">
-        <v>-104.351000</v>
+        <v>-104.351</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>75836.427981</v>
+        <v>75836.427981000001</v>
       </c>
       <c r="V19" s="1">
-        <v>21.065674</v>
+        <v>21.065674000000001</v>
       </c>
       <c r="W19" s="1">
-        <v>958.681000</v>
+        <v>958.68100000000004</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.408200</v>
+        <v>-89.408199999999994</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>75846.989295</v>
+        <v>75846.989295000007</v>
       </c>
       <c r="AA19" s="1">
-        <v>21.068608</v>
+        <v>21.068608000000001</v>
       </c>
       <c r="AB19" s="1">
-        <v>966.381000</v>
+        <v>966.38099999999997</v>
       </c>
       <c r="AC19" s="1">
-        <v>-77.613900</v>
+        <v>-77.613900000000001</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>75857.216801</v>
+        <v>75857.216801000002</v>
       </c>
       <c r="AF19" s="1">
-        <v>21.071449</v>
+        <v>21.071449000000001</v>
       </c>
       <c r="AG19" s="1">
-        <v>971.251000</v>
+        <v>971.25099999999998</v>
       </c>
       <c r="AH19" s="1">
-        <v>-75.201400</v>
+        <v>-75.201400000000007</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>75867.457234</v>
+        <v>75867.457234000001</v>
       </c>
       <c r="AK19" s="1">
-        <v>21.074294</v>
+        <v>21.074293999999998</v>
       </c>
       <c r="AL19" s="1">
-        <v>978.678000</v>
+        <v>978.678</v>
       </c>
       <c r="AM19" s="1">
-        <v>-79.610400</v>
+        <v>-79.610399999999998</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>75877.938661</v>
+        <v>75877.938660999993</v>
       </c>
       <c r="AP19" s="1">
-        <v>21.077205</v>
+        <v>21.077204999999999</v>
       </c>
       <c r="AQ19" s="1">
-        <v>986.853000</v>
+        <v>986.85299999999995</v>
       </c>
       <c r="AR19" s="1">
-        <v>-90.876600</v>
+        <v>-90.876599999999996</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>75888.649303</v>
+        <v>75888.649302999998</v>
       </c>
       <c r="AU19" s="1">
-        <v>21.080180</v>
+        <v>21.080179999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>996.727000</v>
+        <v>996.72699999999998</v>
       </c>
       <c r="AW19" s="1">
-        <v>-108.205000</v>
+        <v>-108.205</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>75899.592008</v>
+        <v>75899.592008000007</v>
       </c>
       <c r="AZ19" s="1">
-        <v>21.083220</v>
+        <v>21.083220000000001</v>
       </c>
       <c r="BA19" s="1">
-        <v>1005.040000</v>
+        <v>1005.04</v>
       </c>
       <c r="BB19" s="1">
-        <v>-123.639000</v>
+        <v>-123.639</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>75910.906281</v>
+        <v>75910.906281000003</v>
       </c>
       <c r="BE19" s="1">
-        <v>21.086363</v>
+        <v>21.086362999999999</v>
       </c>
       <c r="BF19" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG19" s="1">
-        <v>-194.475000</v>
+        <v>-194.47499999999999</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
-        <v>75922.142652</v>
+        <v>75922.142651999995</v>
       </c>
       <c r="BJ19" s="1">
-        <v>21.089484</v>
+        <v>21.089483999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL19" s="1">
-        <v>-308.949000</v>
+        <v>-308.94900000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>75933.506957</v>
+        <v>75933.506957000005</v>
       </c>
       <c r="BO19" s="1">
         <v>21.092641</v>
       </c>
       <c r="BP19" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-488.324000</v>
+        <v>-488.32400000000001</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>75944.514173</v>
+        <v>75944.514173000003</v>
       </c>
       <c r="BT19" s="1">
-        <v>21.095698</v>
+        <v>21.095697999999999</v>
       </c>
       <c r="BU19" s="1">
-        <v>1338.960000</v>
+        <v>1338.96</v>
       </c>
       <c r="BV19" s="1">
-        <v>-683.891000</v>
+        <v>-683.89099999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
-        <v>75955.313567</v>
+        <v>75955.313567000005</v>
       </c>
       <c r="BY19" s="1">
-        <v>21.098698</v>
+        <v>21.098697999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1473.420000</v>
+        <v>1473.42</v>
       </c>
       <c r="CA19" s="1">
-        <v>-892.176000</v>
+        <v>-892.17600000000004</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
-        <v>75967.967007</v>
+        <v>75967.967006999999</v>
       </c>
       <c r="CD19" s="1">
-        <v>21.102213</v>
+        <v>21.102212999999999</v>
       </c>
       <c r="CE19" s="1">
-        <v>1821.400000</v>
+        <v>1821.4</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1384.140000</v>
+        <v>-1384.14</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>75794.439651</v>
+        <v>75794.439650999993</v>
       </c>
       <c r="B20" s="1">
-        <v>21.054011</v>
+        <v>21.054010999999999</v>
       </c>
       <c r="C20" s="1">
-        <v>902.288000</v>
+        <v>902.28800000000001</v>
       </c>
       <c r="D20" s="1">
-        <v>-197.638000</v>
+        <v>-197.63800000000001</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
-        <v>75804.889862</v>
+        <v>75804.889861999996</v>
       </c>
       <c r="G20" s="1">
-        <v>21.056914</v>
+        <v>21.056913999999999</v>
       </c>
       <c r="H20" s="1">
-        <v>920.507000</v>
+        <v>920.50699999999995</v>
       </c>
       <c r="I20" s="1">
-        <v>-168.483000</v>
+        <v>-168.483</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>75815.383719</v>
+        <v>75815.383719000005</v>
       </c>
       <c r="L20" s="1">
-        <v>21.059829</v>
+        <v>21.059829000000001</v>
       </c>
       <c r="M20" s="1">
-        <v>944.461000</v>
+        <v>944.46100000000001</v>
       </c>
       <c r="N20" s="1">
-        <v>-120.369000</v>
+        <v>-120.369</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>75826.273881</v>
+        <v>75826.273881000001</v>
       </c>
       <c r="Q20" s="1">
-        <v>21.062854</v>
+        <v>21.062854000000002</v>
       </c>
       <c r="R20" s="1">
-        <v>951.714000</v>
+        <v>951.71400000000006</v>
       </c>
       <c r="S20" s="1">
-        <v>-104.327000</v>
+        <v>-104.327</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>75836.773692</v>
+        <v>75836.773692000002</v>
       </c>
       <c r="V20" s="1">
-        <v>21.065770</v>
+        <v>21.065770000000001</v>
       </c>
       <c r="W20" s="1">
-        <v>958.775000</v>
+        <v>958.77499999999998</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.312600</v>
+        <v>-89.312600000000003</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>75847.684718</v>
+        <v>75847.684718000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>21.068801</v>
+        <v>21.068801000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>966.323000</v>
+        <v>966.32299999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-77.521700</v>
+        <v>-77.521699999999996</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>75857.911697</v>
+        <v>75857.911697000003</v>
       </c>
       <c r="AF20" s="1">
-        <v>21.071642</v>
+        <v>21.071642000000001</v>
       </c>
       <c r="AG20" s="1">
-        <v>971.256000</v>
+        <v>971.25599999999997</v>
       </c>
       <c r="AH20" s="1">
-        <v>-75.193700</v>
+        <v>-75.193700000000007</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>75867.803906</v>
+        <v>75867.803906000001</v>
       </c>
       <c r="AK20" s="1">
-        <v>21.074390</v>
+        <v>21.074390000000001</v>
       </c>
       <c r="AL20" s="1">
-        <v>978.699000</v>
+        <v>978.69899999999996</v>
       </c>
       <c r="AM20" s="1">
-        <v>-79.616300</v>
+        <v>-79.616299999999995</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>75878.298756</v>
+        <v>75878.298756000004</v>
       </c>
       <c r="AP20" s="1">
-        <v>21.077305</v>
+        <v>21.077304999999999</v>
       </c>
       <c r="AQ20" s="1">
-        <v>986.851000</v>
+        <v>986.851</v>
       </c>
       <c r="AR20" s="1">
-        <v>-90.886300</v>
+        <v>-90.886300000000006</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>75889.014841</v>
+        <v>75889.014840999997</v>
       </c>
       <c r="AU20" s="1">
         <v>21.080282</v>
       </c>
       <c r="AV20" s="1">
-        <v>996.735000</v>
+        <v>996.73500000000001</v>
       </c>
       <c r="AW20" s="1">
-        <v>-108.221000</v>
+        <v>-108.221</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>75900.264583</v>
+        <v>75900.264582999996</v>
       </c>
       <c r="AZ20" s="1">
-        <v>21.083407</v>
+        <v>21.083407000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB20" s="1">
-        <v>-123.625000</v>
+        <v>-123.625</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>75911.315449</v>
+        <v>75911.315449000002</v>
       </c>
       <c r="BE20" s="1">
-        <v>21.086477</v>
+        <v>21.086476999999999</v>
       </c>
       <c r="BF20" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG20" s="1">
-        <v>-194.476000</v>
+        <v>-194.476</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>75922.567690</v>
+        <v>75922.567689999996</v>
       </c>
       <c r="BJ20" s="1">
-        <v>21.089602</v>
+        <v>21.089601999999999</v>
       </c>
       <c r="BK20" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL20" s="1">
-        <v>-308.936000</v>
+        <v>-308.93599999999998</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
-        <v>75933.913675</v>
+        <v>75933.913675000003</v>
       </c>
       <c r="BO20" s="1">
-        <v>21.092754</v>
+        <v>21.092753999999999</v>
       </c>
       <c r="BP20" s="1">
-        <v>1218.390000</v>
+        <v>1218.3900000000001</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-488.292000</v>
+        <v>-488.29199999999997</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>75944.944700</v>
+        <v>75944.944699999993</v>
       </c>
       <c r="BT20" s="1">
-        <v>21.095818</v>
+        <v>21.095818000000001</v>
       </c>
       <c r="BU20" s="1">
-        <v>1339.000000</v>
+        <v>1339</v>
       </c>
       <c r="BV20" s="1">
-        <v>-683.996000</v>
+        <v>-683.99599999999998</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>75955.736159</v>
+        <v>75955.736158999993</v>
       </c>
       <c r="BY20" s="1">
-        <v>21.098816</v>
+        <v>21.098815999999999</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1473.440000</v>
+        <v>1473.44</v>
       </c>
       <c r="CA20" s="1">
-        <v>-892.056000</v>
+        <v>-892.05600000000004</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
-        <v>75968.516077</v>
+        <v>75968.516076999993</v>
       </c>
       <c r="CD20" s="1">
         <v>21.102366</v>
       </c>
       <c r="CE20" s="1">
-        <v>1822.010000</v>
+        <v>1822.01</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1383.650000</v>
+        <v>-1383.65</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>75794.781394</v>
+        <v>75794.781394000005</v>
       </c>
       <c r="B21" s="1">
-        <v>21.054106</v>
+        <v>21.054106000000001</v>
       </c>
       <c r="C21" s="1">
-        <v>902.259000</v>
+        <v>902.25900000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-197.615000</v>
+        <v>-197.61500000000001</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>75805.235108</v>
+        <v>75805.235107999993</v>
       </c>
       <c r="G21" s="1">
-        <v>21.057010</v>
+        <v>21.057009999999998</v>
       </c>
       <c r="H21" s="1">
-        <v>919.996000</v>
+        <v>919.99599999999998</v>
       </c>
       <c r="I21" s="1">
-        <v>-168.571000</v>
+        <v>-168.571</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
-        <v>75815.727447</v>
+        <v>75815.727446999997</v>
       </c>
       <c r="L21" s="1">
-        <v>21.059924</v>
+        <v>21.059923999999999</v>
       </c>
       <c r="M21" s="1">
-        <v>944.490000</v>
+        <v>944.49</v>
       </c>
       <c r="N21" s="1">
-        <v>-120.376000</v>
+        <v>-120.376</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>75826.972248</v>
+        <v>75826.972248000005</v>
       </c>
       <c r="Q21" s="1">
-        <v>21.063048</v>
+        <v>21.063047999999998</v>
       </c>
       <c r="R21" s="1">
-        <v>951.685000</v>
+        <v>951.68499999999995</v>
       </c>
       <c r="S21" s="1">
-        <v>-104.348000</v>
+        <v>-104.348</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
         <v>75837.459659</v>
       </c>
       <c r="V21" s="1">
-        <v>21.065961</v>
+        <v>21.065961000000001</v>
       </c>
       <c r="W21" s="1">
-        <v>958.696000</v>
+        <v>958.69600000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.307200</v>
+        <v>-89.307199999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>75848.034861</v>
+        <v>75848.034860999993</v>
       </c>
       <c r="AA21" s="1">
-        <v>21.068899</v>
+        <v>21.068898999999998</v>
       </c>
       <c r="AB21" s="1">
-        <v>966.303000</v>
+        <v>966.303</v>
       </c>
       <c r="AC21" s="1">
-        <v>-77.556300</v>
+        <v>-77.556299999999993</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>75858.258894</v>
+        <v>75858.258893999999</v>
       </c>
       <c r="AF21" s="1">
-        <v>21.071739</v>
+        <v>21.071739000000001</v>
       </c>
       <c r="AG21" s="1">
-        <v>971.213000</v>
+        <v>971.21299999999997</v>
       </c>
       <c r="AH21" s="1">
-        <v>-75.201500</v>
+        <v>-75.201499999999996</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>75868.154083</v>
+        <v>75868.154083000001</v>
       </c>
       <c r="AK21" s="1">
-        <v>21.074487</v>
+        <v>21.074487000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>978.641000</v>
+        <v>978.64099999999996</v>
       </c>
       <c r="AM21" s="1">
-        <v>-79.595200</v>
+        <v>-79.595200000000006</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>75878.973315</v>
+        <v>75878.973314999996</v>
       </c>
       <c r="AP21" s="1">
         <v>21.077493</v>
       </c>
       <c r="AQ21" s="1">
-        <v>986.854000</v>
+        <v>986.85400000000004</v>
       </c>
       <c r="AR21" s="1">
-        <v>-90.893200</v>
+        <v>-90.893199999999993</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>75889.693886</v>
+        <v>75889.693885999994</v>
       </c>
       <c r="AU21" s="1">
-        <v>21.080471</v>
+        <v>21.080470999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>996.741000</v>
+        <v>996.74099999999999</v>
       </c>
       <c r="AW21" s="1">
-        <v>-108.212000</v>
+        <v>-108.212</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
         <v>75900.675271</v>
       </c>
       <c r="AZ21" s="1">
-        <v>21.083521</v>
+        <v>21.083521000000001</v>
       </c>
       <c r="BA21" s="1">
-        <v>1005.020000</v>
+        <v>1005.02</v>
       </c>
       <c r="BB21" s="1">
-        <v>-123.630000</v>
+        <v>-123.63</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>75911.700344</v>
+        <v>75911.700343999997</v>
       </c>
       <c r="BE21" s="1">
-        <v>21.086583</v>
+        <v>21.086583000000001</v>
       </c>
       <c r="BF21" s="1">
-        <v>1043.740000</v>
+        <v>1043.74</v>
       </c>
       <c r="BG21" s="1">
-        <v>-194.489000</v>
+        <v>-194.489</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>75922.954569</v>
+        <v>75922.954568999994</v>
       </c>
       <c r="BJ21" s="1">
-        <v>21.089710</v>
+        <v>21.08971</v>
       </c>
       <c r="BK21" s="1">
-        <v>1110.450000</v>
+        <v>1110.45</v>
       </c>
       <c r="BL21" s="1">
-        <v>-308.935000</v>
+        <v>-308.935</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
         <v>75934.311963</v>
       </c>
       <c r="BO21" s="1">
-        <v>21.092864</v>
+        <v>21.092863999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-488.297000</v>
+        <v>-488.29700000000003</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>75945.366300</v>
+        <v>75945.366299999994</v>
       </c>
       <c r="BT21" s="1">
-        <v>21.095935</v>
+        <v>21.095935000000001</v>
       </c>
       <c r="BU21" s="1">
-        <v>1338.970000</v>
+        <v>1338.97</v>
       </c>
       <c r="BV21" s="1">
-        <v>-683.857000</v>
+        <v>-683.85699999999997</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
         <v>75956.170157</v>
       </c>
       <c r="BY21" s="1">
-        <v>21.098936</v>
+        <v>21.098935999999998</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA21" s="1">
-        <v>-892.191000</v>
+        <v>-892.19100000000003</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>75969.047789</v>
+        <v>75969.047789000004</v>
       </c>
       <c r="CD21" s="1">
-        <v>21.102513</v>
+        <v>21.102512999999998</v>
       </c>
       <c r="CE21" s="1">
-        <v>1821.240000</v>
+        <v>1821.24</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1384.700000</v>
+        <v>-1384.7</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
-        <v>75795.122674</v>
+        <v>75795.122673999998</v>
       </c>
       <c r="B22" s="1">
-        <v>21.054201</v>
+        <v>21.054200999999999</v>
       </c>
       <c r="C22" s="1">
-        <v>902.249000</v>
+        <v>902.24900000000002</v>
       </c>
       <c r="D22" s="1">
-        <v>-197.547000</v>
+        <v>-197.547</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>75805.578805</v>
+        <v>75805.578804999997</v>
       </c>
       <c r="G22" s="1">
         <v>21.057105</v>
       </c>
       <c r="H22" s="1">
-        <v>920.268000</v>
+        <v>920.26800000000003</v>
       </c>
       <c r="I22" s="1">
-        <v>-168.173000</v>
+        <v>-168.173</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>75816.419889</v>
+        <v>75816.419888999997</v>
       </c>
       <c r="L22" s="1">
-        <v>21.060117</v>
+        <v>21.060117000000002</v>
       </c>
       <c r="M22" s="1">
-        <v>944.450000</v>
+        <v>944.45</v>
       </c>
       <c r="N22" s="1">
-        <v>-120.592000</v>
+        <v>-120.592</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>75827.320936</v>
+        <v>75827.320936000004</v>
       </c>
       <c r="Q22" s="1">
-        <v>21.063145</v>
+        <v>21.063144999999999</v>
       </c>
       <c r="R22" s="1">
-        <v>951.740000</v>
+        <v>951.74</v>
       </c>
       <c r="S22" s="1">
-        <v>-104.271000</v>
+        <v>-104.271</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>75837.804378</v>
+        <v>75837.804378000001</v>
       </c>
       <c r="V22" s="1">
-        <v>21.066057</v>
+        <v>21.066057000000001</v>
       </c>
       <c r="W22" s="1">
-        <v>958.695000</v>
+        <v>958.69500000000005</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.309900</v>
+        <v>-89.309899999999999</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>75848.382557</v>
+        <v>75848.382557000004</v>
       </c>
       <c r="AA22" s="1">
-        <v>21.068995</v>
+        <v>21.068995000000001</v>
       </c>
       <c r="AB22" s="1">
-        <v>966.342000</v>
+        <v>966.34199999999998</v>
       </c>
       <c r="AC22" s="1">
-        <v>-77.514800</v>
+        <v>-77.514799999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>75858.603118</v>
+        <v>75858.603117999999</v>
       </c>
       <c r="AF22" s="1">
-        <v>21.071834</v>
+        <v>21.071833999999999</v>
       </c>
       <c r="AG22" s="1">
-        <v>971.281000</v>
+        <v>971.28099999999995</v>
       </c>
       <c r="AH22" s="1">
-        <v>-75.235100</v>
+        <v>-75.235100000000003</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
-        <v>75868.812306</v>
+        <v>75868.812306000007</v>
       </c>
       <c r="AK22" s="1">
-        <v>21.074670</v>
+        <v>21.074670000000001</v>
       </c>
       <c r="AL22" s="1">
-        <v>978.675000</v>
+        <v>978.67499999999995</v>
       </c>
       <c r="AM22" s="1">
-        <v>-79.604800</v>
+        <v>-79.604799999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>75879.379076</v>
+        <v>75879.379075999997</v>
       </c>
       <c r="AP22" s="1">
-        <v>21.077605</v>
+        <v>21.077604999999998</v>
       </c>
       <c r="AQ22" s="1">
-        <v>986.852000</v>
+        <v>986.85199999999998</v>
       </c>
       <c r="AR22" s="1">
-        <v>-90.883200</v>
+        <v>-90.883200000000002</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>75890.109525</v>
+        <v>75890.109525000007</v>
       </c>
       <c r="AU22" s="1">
         <v>21.080586</v>
       </c>
       <c r="AV22" s="1">
-        <v>996.732000</v>
+        <v>996.73199999999997</v>
       </c>
       <c r="AW22" s="1">
-        <v>-108.203000</v>
+        <v>-108.203</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>75901.051734</v>
+        <v>75901.051733999993</v>
       </c>
       <c r="AZ22" s="1">
-        <v>21.083625</v>
+        <v>21.083625000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB22" s="1">
-        <v>-123.640000</v>
+        <v>-123.64</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
-        <v>75912.064417</v>
+        <v>75912.064417000001</v>
       </c>
       <c r="BE22" s="1">
-        <v>21.086685</v>
+        <v>21.086684999999999</v>
       </c>
       <c r="BF22" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG22" s="1">
-        <v>-194.472000</v>
+        <v>-194.47200000000001</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>75923.329049</v>
+        <v>75923.329049000007</v>
       </c>
       <c r="BJ22" s="1">
-        <v>21.089814</v>
+        <v>21.089814000000001</v>
       </c>
       <c r="BK22" s="1">
-        <v>1110.460000</v>
+        <v>1110.46</v>
       </c>
       <c r="BL22" s="1">
-        <v>-308.949000</v>
+        <v>-308.94900000000001</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
-        <v>75934.737034</v>
+        <v>75934.737034000005</v>
       </c>
       <c r="BO22" s="1">
         <v>21.092983</v>
       </c>
       <c r="BP22" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-488.279000</v>
+        <v>-488.279</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>75945.784923</v>
+        <v>75945.784922999999</v>
       </c>
       <c r="BT22" s="1">
-        <v>21.096051</v>
+        <v>21.096050999999999</v>
       </c>
       <c r="BU22" s="1">
-        <v>1338.990000</v>
+        <v>1338.99</v>
       </c>
       <c r="BV22" s="1">
-        <v>-683.859000</v>
+        <v>-683.85900000000004</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>75956.582829</v>
+        <v>75956.582829000006</v>
       </c>
       <c r="BY22" s="1">
-        <v>21.099051</v>
+        <v>21.099050999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1473.430000</v>
+        <v>1473.43</v>
       </c>
       <c r="CA22" s="1">
-        <v>-892.152000</v>
+        <v>-892.15200000000004</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>75969.563629</v>
+        <v>75969.563628999997</v>
       </c>
       <c r="CD22" s="1">
-        <v>21.102657</v>
+        <v>21.102657000000001</v>
       </c>
       <c r="CE22" s="1">
-        <v>1822.570000</v>
+        <v>1822.57</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1385.460000</v>
+        <v>-1385.46</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>75795.804641</v>
+        <v>75795.804640999995</v>
       </c>
       <c r="B23" s="1">
-        <v>21.054390</v>
+        <v>21.054390000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>902.314000</v>
+        <v>902.31399999999996</v>
       </c>
       <c r="D23" s="1">
-        <v>-197.697000</v>
+        <v>-197.697</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>75806.268243</v>
+        <v>75806.268242999999</v>
       </c>
       <c r="G23" s="1">
-        <v>21.057297</v>
+        <v>21.057296999999998</v>
       </c>
       <c r="H23" s="1">
-        <v>920.275000</v>
+        <v>920.27499999999998</v>
       </c>
       <c r="I23" s="1">
-        <v>-168.331000</v>
+        <v>-168.33099999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>75816.763591</v>
+        <v>75816.763590999995</v>
       </c>
       <c r="L23" s="1">
         <v>21.060212</v>
       </c>
       <c r="M23" s="1">
-        <v>944.342000</v>
+        <v>944.34199999999998</v>
       </c>
       <c r="N23" s="1">
-        <v>-120.566000</v>
+        <v>-120.566</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>75827.672103</v>
+        <v>75827.672103000004</v>
       </c>
       <c r="Q23" s="1">
-        <v>21.063242</v>
+        <v>21.063241999999999</v>
       </c>
       <c r="R23" s="1">
-        <v>951.769000</v>
+        <v>951.76900000000001</v>
       </c>
       <c r="S23" s="1">
-        <v>-104.348000</v>
+        <v>-104.348</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>75838.148602</v>
+        <v>75838.148602000001</v>
       </c>
       <c r="V23" s="1">
-        <v>21.066152</v>
+        <v>21.066151999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>958.673000</v>
+        <v>958.673</v>
       </c>
       <c r="X23" s="1">
-        <v>-89.413300</v>
+        <v>-89.413300000000007</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>75849.054635</v>
+        <v>75849.054634999993</v>
       </c>
       <c r="AA23" s="1">
-        <v>21.069182</v>
+        <v>21.069182000000001</v>
       </c>
       <c r="AB23" s="1">
-        <v>966.392000</v>
+        <v>966.39200000000005</v>
       </c>
       <c r="AC23" s="1">
-        <v>-77.614500</v>
+        <v>-77.614500000000007</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>75859.058942</v>
+        <v>75859.058942000003</v>
       </c>
       <c r="AF23" s="1">
-        <v>21.071961</v>
+        <v>21.071961000000002</v>
       </c>
       <c r="AG23" s="1">
-        <v>971.246000</v>
+        <v>971.24599999999998</v>
       </c>
       <c r="AH23" s="1">
-        <v>-75.199700</v>
+        <v>-75.199700000000007</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>75869.200640</v>
+        <v>75869.200639999995</v>
       </c>
       <c r="AK23" s="1">
-        <v>21.074778</v>
+        <v>21.074777999999998</v>
       </c>
       <c r="AL23" s="1">
-        <v>978.684000</v>
+        <v>978.68399999999997</v>
       </c>
       <c r="AM23" s="1">
-        <v>-79.606800</v>
+        <v>-79.606800000000007</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>75879.758482</v>
+        <v>75879.758482000005</v>
       </c>
       <c r="AP23" s="1">
-        <v>21.077711</v>
+        <v>21.077711000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>986.863000</v>
+        <v>986.86300000000006</v>
       </c>
       <c r="AR23" s="1">
-        <v>-90.879200</v>
+        <v>-90.879199999999997</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
         <v>75890.476037</v>
       </c>
       <c r="AU23" s="1">
-        <v>21.080688</v>
+        <v>21.080687999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>996.738000</v>
+        <v>996.73800000000006</v>
       </c>
       <c r="AW23" s="1">
-        <v>-108.206000</v>
+        <v>-108.206</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>75901.430183</v>
+        <v>75901.430183000004</v>
       </c>
       <c r="AZ23" s="1">
         <v>21.083731</v>
       </c>
       <c r="BA23" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB23" s="1">
-        <v>-123.653000</v>
+        <v>-123.65300000000001</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>75912.485015</v>
+        <v>75912.485014999998</v>
       </c>
       <c r="BE23" s="1">
-        <v>21.086801</v>
+        <v>21.086801000000001</v>
       </c>
       <c r="BF23" s="1">
-        <v>1043.730000</v>
+        <v>1043.73</v>
       </c>
       <c r="BG23" s="1">
-        <v>-194.481000</v>
+        <v>-194.48099999999999</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>75923.763080</v>
+        <v>75923.763080000004</v>
       </c>
       <c r="BJ23" s="1">
         <v>21.089934</v>
       </c>
       <c r="BK23" s="1">
-        <v>1110.460000</v>
+        <v>1110.46</v>
       </c>
       <c r="BL23" s="1">
-        <v>-308.932000</v>
+        <v>-308.93200000000002</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
-        <v>75935.140777</v>
+        <v>75935.140776999993</v>
       </c>
       <c r="BO23" s="1">
-        <v>21.093095</v>
+        <v>21.093095000000002</v>
       </c>
       <c r="BP23" s="1">
-        <v>1218.360000</v>
+        <v>1218.3599999999999</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-488.272000</v>
+        <v>-488.27199999999999</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
-        <v>75946.212229</v>
+        <v>75946.212228999997</v>
       </c>
       <c r="BT23" s="1">
-        <v>21.096170</v>
+        <v>21.096170000000001</v>
       </c>
       <c r="BU23" s="1">
-        <v>1339.010000</v>
+        <v>1339.01</v>
       </c>
       <c r="BV23" s="1">
-        <v>-683.884000</v>
+        <v>-683.88400000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>75957.000460</v>
+        <v>75957.000459999996</v>
       </c>
       <c r="BY23" s="1">
-        <v>21.099167</v>
+        <v>21.099167000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1473.360000</v>
+        <v>1473.36</v>
       </c>
       <c r="CA23" s="1">
-        <v>-892.032000</v>
+        <v>-892.03200000000004</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>75970.083972</v>
+        <v>75970.083971999993</v>
       </c>
       <c r="CD23" s="1">
-        <v>21.102801</v>
+        <v>21.102800999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1822.870000</v>
+        <v>1822.87</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1384.060000</v>
+        <v>-1384.06</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>75796.147873</v>
+        <v>75796.147872999994</v>
       </c>
       <c r="B24" s="1">
-        <v>21.054486</v>
+        <v>21.054486000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>902.282000</v>
+        <v>902.28200000000004</v>
       </c>
       <c r="D24" s="1">
-        <v>-197.562000</v>
+        <v>-197.56200000000001</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>75806.612963</v>
+        <v>75806.612963000007</v>
       </c>
       <c r="G24" s="1">
         <v>21.057392</v>
       </c>
       <c r="H24" s="1">
-        <v>920.311000</v>
+        <v>920.31100000000004</v>
       </c>
       <c r="I24" s="1">
-        <v>-168.378000</v>
+        <v>-168.37799999999999</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>75817.113765</v>
+        <v>75817.113765000002</v>
       </c>
       <c r="L24" s="1">
         <v>21.060309</v>
       </c>
       <c r="M24" s="1">
-        <v>944.519000</v>
+        <v>944.51900000000001</v>
       </c>
       <c r="N24" s="1">
-        <v>-120.436000</v>
+        <v>-120.43600000000001</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>75828.333271</v>
+        <v>75828.333270999996</v>
       </c>
       <c r="Q24" s="1">
         <v>21.063426</v>
       </c>
       <c r="R24" s="1">
-        <v>951.669000</v>
+        <v>951.66899999999998</v>
       </c>
       <c r="S24" s="1">
-        <v>-104.363000</v>
+        <v>-104.363</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>75838.813273</v>
+        <v>75838.813273000007</v>
       </c>
       <c r="V24" s="1">
-        <v>21.066337</v>
+        <v>21.066337000000001</v>
       </c>
       <c r="W24" s="1">
-        <v>958.871000</v>
+        <v>958.87099999999998</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.304800</v>
+        <v>-89.3048</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
         <v>75849.429611</v>
       </c>
       <c r="AA24" s="1">
-        <v>21.069286</v>
+        <v>21.069286000000002</v>
       </c>
       <c r="AB24" s="1">
-        <v>966.352000</v>
+        <v>966.35199999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-77.558400</v>
+        <v>-77.558400000000006</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>75859.301983</v>
+        <v>75859.301982999998</v>
       </c>
       <c r="AF24" s="1">
         <v>21.072028</v>
       </c>
       <c r="AG24" s="1">
-        <v>971.252000</v>
+        <v>971.25199999999995</v>
       </c>
       <c r="AH24" s="1">
-        <v>-75.195400</v>
+        <v>-75.195400000000006</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>75869.547344</v>
+        <v>75869.547344000006</v>
       </c>
       <c r="AK24" s="1">
-        <v>21.074874</v>
+        <v>21.074874000000001</v>
       </c>
       <c r="AL24" s="1">
-        <v>978.680000</v>
+        <v>978.68</v>
       </c>
       <c r="AM24" s="1">
-        <v>-79.583000</v>
+        <v>-79.582999999999998</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>75880.122058</v>
+        <v>75880.122057999994</v>
       </c>
       <c r="AP24" s="1">
-        <v>21.077812</v>
+        <v>21.077812000000002</v>
       </c>
       <c r="AQ24" s="1">
-        <v>986.857000</v>
+        <v>986.85699999999997</v>
       </c>
       <c r="AR24" s="1">
-        <v>-90.878400</v>
+        <v>-90.878399999999999</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>75890.837621</v>
+        <v>75890.837620999999</v>
       </c>
       <c r="AU24" s="1">
-        <v>21.080788</v>
+        <v>21.080787999999998</v>
       </c>
       <c r="AV24" s="1">
-        <v>996.736000</v>
+        <v>996.73599999999999</v>
       </c>
       <c r="AW24" s="1">
-        <v>-108.207000</v>
+        <v>-108.20699999999999</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>75901.849539</v>
+        <v>75901.849539000003</v>
       </c>
       <c r="AZ24" s="1">
-        <v>21.083847</v>
+        <v>21.083846999999999</v>
       </c>
       <c r="BA24" s="1">
-        <v>1005.040000</v>
+        <v>1005.04</v>
       </c>
       <c r="BB24" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>75912.785095</v>
+        <v>75912.785094999999</v>
       </c>
       <c r="BE24" s="1">
-        <v>21.086885</v>
+        <v>21.086884999999999</v>
       </c>
       <c r="BF24" s="1">
-        <v>1043.740000</v>
+        <v>1043.74</v>
       </c>
       <c r="BG24" s="1">
-        <v>-194.467000</v>
+        <v>-194.46700000000001</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>75924.100328</v>
@@ -6315,270 +6731,270 @@
         <v>21.090028</v>
       </c>
       <c r="BK24" s="1">
-        <v>1110.470000</v>
+        <v>1110.47</v>
       </c>
       <c r="BL24" s="1">
-        <v>-308.945000</v>
+        <v>-308.94499999999999</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>75935.552953</v>
+        <v>75935.552953000006</v>
       </c>
       <c r="BO24" s="1">
-        <v>21.093209</v>
+        <v>21.093209000000002</v>
       </c>
       <c r="BP24" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-488.287000</v>
+        <v>-488.28699999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>75946.625680</v>
+        <v>75946.625679999997</v>
       </c>
       <c r="BT24" s="1">
-        <v>21.096285</v>
+        <v>21.096285000000002</v>
       </c>
       <c r="BU24" s="1">
-        <v>1338.990000</v>
+        <v>1338.99</v>
       </c>
       <c r="BV24" s="1">
-        <v>-683.940000</v>
+        <v>-683.94</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>75957.446861</v>
+        <v>75957.446861000004</v>
       </c>
       <c r="BY24" s="1">
-        <v>21.099291</v>
+        <v>21.099291000000001</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1473.380000</v>
+        <v>1473.38</v>
       </c>
       <c r="CA24" s="1">
-        <v>-892.072000</v>
+        <v>-892.072</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>75970.601259</v>
+        <v>75970.601259000003</v>
       </c>
       <c r="CD24" s="1">
-        <v>21.102945</v>
+        <v>21.102944999999998</v>
       </c>
       <c r="CE24" s="1">
-        <v>1822.750000</v>
+        <v>1822.75</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1384.560000</v>
+        <v>-1384.56</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>75796.492373</v>
+        <v>75796.492373000001</v>
       </c>
       <c r="B25" s="1">
-        <v>21.054581</v>
+        <v>21.054580999999999</v>
       </c>
       <c r="C25" s="1">
-        <v>902.412000</v>
+        <v>902.41200000000003</v>
       </c>
       <c r="D25" s="1">
-        <v>-197.726000</v>
+        <v>-197.726</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>75806.947763</v>
+        <v>75806.947763000004</v>
       </c>
       <c r="G25" s="1">
         <v>21.057485</v>
       </c>
       <c r="H25" s="1">
-        <v>919.773000</v>
+        <v>919.77300000000002</v>
       </c>
       <c r="I25" s="1">
-        <v>-168.157000</v>
+        <v>-168.15700000000001</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>75817.771988</v>
+        <v>75817.771987999993</v>
       </c>
       <c r="L25" s="1">
         <v>21.060492</v>
       </c>
       <c r="M25" s="1">
-        <v>944.533000</v>
+        <v>944.53300000000002</v>
       </c>
       <c r="N25" s="1">
-        <v>-120.279000</v>
+        <v>-120.279</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>75828.717175</v>
+        <v>75828.717174999998</v>
       </c>
       <c r="Q25" s="1">
         <v>21.063533</v>
       </c>
       <c r="R25" s="1">
-        <v>951.696000</v>
+        <v>951.69600000000003</v>
       </c>
       <c r="S25" s="1">
-        <v>-104.345000</v>
+        <v>-104.345</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>75839.184250</v>
+        <v>75839.184250000006</v>
       </c>
       <c r="V25" s="1">
-        <v>21.066440</v>
+        <v>21.06644</v>
       </c>
       <c r="W25" s="1">
-        <v>958.614000</v>
+        <v>958.61400000000003</v>
       </c>
       <c r="X25" s="1">
-        <v>-89.341600</v>
+        <v>-89.3416</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>75849.776810</v>
+        <v>75849.776809999996</v>
       </c>
       <c r="AA25" s="1">
-        <v>21.069382</v>
+        <v>21.069382000000001</v>
       </c>
       <c r="AB25" s="1">
-        <v>966.349000</v>
+        <v>966.34900000000005</v>
       </c>
       <c r="AC25" s="1">
-        <v>-77.542900</v>
+        <v>-77.542900000000003</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
-        <v>75859.646207</v>
+        <v>75859.646206999998</v>
       </c>
       <c r="AF25" s="1">
-        <v>21.072124</v>
+        <v>21.072123999999999</v>
       </c>
       <c r="AG25" s="1">
-        <v>971.255000</v>
+        <v>971.255</v>
       </c>
       <c r="AH25" s="1">
-        <v>-75.165400</v>
+        <v>-75.165400000000005</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
-        <v>75869.898513</v>
+        <v>75869.898512999993</v>
       </c>
       <c r="AK25" s="1">
-        <v>21.074972</v>
+        <v>21.074971999999999</v>
       </c>
       <c r="AL25" s="1">
-        <v>978.679000</v>
+        <v>978.67899999999997</v>
       </c>
       <c r="AM25" s="1">
-        <v>-79.614100</v>
+        <v>-79.614099999999993</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
-        <v>75880.538690</v>
+        <v>75880.538690000001</v>
       </c>
       <c r="AP25" s="1">
-        <v>21.077927</v>
+        <v>21.077926999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>986.842000</v>
+        <v>986.84199999999998</v>
       </c>
       <c r="AR25" s="1">
-        <v>-90.871100</v>
+        <v>-90.871099999999998</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>75891.281043</v>
+        <v>75891.281042999995</v>
       </c>
       <c r="AU25" s="1">
         <v>21.080911</v>
       </c>
       <c r="AV25" s="1">
-        <v>996.757000</v>
+        <v>996.75699999999995</v>
       </c>
       <c r="AW25" s="1">
-        <v>-108.208000</v>
+        <v>-108.208</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>75902.148389</v>
+        <v>75902.148388999994</v>
       </c>
       <c r="AZ25" s="1">
-        <v>21.083930</v>
+        <v>21.083929999999999</v>
       </c>
       <c r="BA25" s="1">
-        <v>1005.030000</v>
+        <v>1005.03</v>
       </c>
       <c r="BB25" s="1">
-        <v>-123.637000</v>
+        <v>-123.637</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>75913.144231</v>
+        <v>75913.144230999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>21.086985</v>
+        <v>21.086984999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1043.750000</v>
+        <v>1043.75</v>
       </c>
       <c r="BG25" s="1">
-        <v>-194.466000</v>
+        <v>-194.46600000000001</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>75924.481257</v>
+        <v>75924.481257000007</v>
       </c>
       <c r="BJ25" s="1">
-        <v>21.090134</v>
+        <v>21.090133999999999</v>
       </c>
       <c r="BK25" s="1">
-        <v>1110.470000</v>
+        <v>1110.47</v>
       </c>
       <c r="BL25" s="1">
-        <v>-308.933000</v>
+        <v>-308.93299999999999</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
         <v>75935.946547</v>
@@ -6587,317 +7003,318 @@
         <v>21.093318</v>
       </c>
       <c r="BP25" s="1">
-        <v>1218.370000</v>
+        <v>1218.3699999999999</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-488.262000</v>
+        <v>-488.262</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
-        <v>75947.054185</v>
+        <v>75947.054185000001</v>
       </c>
       <c r="BT25" s="1">
         <v>21.096404</v>
       </c>
       <c r="BU25" s="1">
-        <v>1339.030000</v>
+        <v>1339.03</v>
       </c>
       <c r="BV25" s="1">
-        <v>-683.836000</v>
+        <v>-683.83600000000001</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>75957.868459</v>
+        <v>75957.868459000005</v>
       </c>
       <c r="BY25" s="1">
         <v>21.099408</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1473.370000</v>
+        <v>1473.37</v>
       </c>
       <c r="CA25" s="1">
-        <v>-892.082000</v>
+        <v>-892.08199999999999</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
-        <v>75971.153803</v>
+        <v>75971.153802999994</v>
       </c>
       <c r="CD25" s="1">
-        <v>21.103098</v>
+        <v>21.103097999999999</v>
       </c>
       <c r="CE25" s="1">
-        <v>1822.890000</v>
+        <v>1822.89</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1385.070000</v>
+        <v>-1385.07</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>75797.141374</v>
+        <v>75797.141373999999</v>
       </c>
       <c r="B26" s="1">
-        <v>21.054761</v>
+        <v>21.054760999999999</v>
       </c>
       <c r="C26" s="1">
-        <v>902.270000</v>
+        <v>902.27</v>
       </c>
       <c r="D26" s="1">
-        <v>-197.699000</v>
+        <v>-197.69900000000001</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>75807.618371</v>
+        <v>75807.618371000004</v>
       </c>
       <c r="G26" s="1">
         <v>21.057672</v>
       </c>
       <c r="H26" s="1">
-        <v>920.528000</v>
+        <v>920.52800000000002</v>
       </c>
       <c r="I26" s="1">
-        <v>-168.308000</v>
+        <v>-168.30799999999999</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>75818.147957</v>
+        <v>75818.147956999994</v>
       </c>
       <c r="L26" s="1">
-        <v>21.060597</v>
+        <v>21.060597000000001</v>
       </c>
       <c r="M26" s="1">
-        <v>944.528000</v>
+        <v>944.52800000000002</v>
       </c>
       <c r="N26" s="1">
-        <v>-120.534000</v>
+        <v>-120.53400000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>75829.064406</v>
+        <v>75829.064406000005</v>
       </c>
       <c r="Q26" s="1">
-        <v>21.063629</v>
+        <v>21.063628999999999</v>
       </c>
       <c r="R26" s="1">
-        <v>951.680000</v>
+        <v>951.68</v>
       </c>
       <c r="S26" s="1">
-        <v>-104.346000</v>
+        <v>-104.346</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>75839.530951</v>
+        <v>75839.530950999993</v>
       </c>
       <c r="V26" s="1">
-        <v>21.066536</v>
+        <v>21.066535999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>958.741000</v>
+        <v>958.74099999999999</v>
       </c>
       <c r="X26" s="1">
-        <v>-89.237900</v>
+        <v>-89.237899999999996</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
-        <v>75850.127482</v>
+        <v>75850.127481999996</v>
       </c>
       <c r="AA26" s="1">
-        <v>21.069480</v>
+        <v>21.069479999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>966.278000</v>
+        <v>966.27800000000002</v>
       </c>
       <c r="AC26" s="1">
-        <v>-77.544500</v>
+        <v>-77.544499999999999</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
-        <v>75860.075741</v>
+        <v>75860.075740999993</v>
       </c>
       <c r="AF26" s="1">
         <v>21.072243</v>
       </c>
       <c r="AG26" s="1">
-        <v>971.250000</v>
+        <v>971.25</v>
       </c>
       <c r="AH26" s="1">
-        <v>-75.151100</v>
+        <v>-75.1511</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>75870.329535</v>
+        <v>75870.329534999997</v>
       </c>
       <c r="AK26" s="1">
-        <v>21.075092</v>
+        <v>21.075092000000001</v>
       </c>
       <c r="AL26" s="1">
-        <v>978.649000</v>
+        <v>978.649</v>
       </c>
       <c r="AM26" s="1">
-        <v>-79.614900</v>
+        <v>-79.614900000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
-        <v>75880.844226</v>
+        <v>75880.844226000001</v>
       </c>
       <c r="AP26" s="1">
-        <v>21.078012</v>
+        <v>21.078012000000001</v>
       </c>
       <c r="AQ26" s="1">
-        <v>986.834000</v>
+        <v>986.83399999999995</v>
       </c>
       <c r="AR26" s="1">
-        <v>-90.881900</v>
+        <v>-90.881900000000002</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
-        <v>75891.568731</v>
+        <v>75891.568731000007</v>
       </c>
       <c r="AU26" s="1">
-        <v>21.080991</v>
+        <v>21.080991000000001</v>
       </c>
       <c r="AV26" s="1">
-        <v>996.767000</v>
+        <v>996.76700000000005</v>
       </c>
       <c r="AW26" s="1">
-        <v>-108.196000</v>
+        <v>-108.196</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>75902.507493</v>
+        <v>75902.507492999997</v>
       </c>
       <c r="AZ26" s="1">
-        <v>21.084030</v>
+        <v>21.084029999999998</v>
       </c>
       <c r="BA26" s="1">
-        <v>1005.040000</v>
+        <v>1005.04</v>
       </c>
       <c r="BB26" s="1">
-        <v>-123.631000</v>
+        <v>-123.631</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>75913.508262</v>
+        <v>75913.508262000003</v>
       </c>
       <c r="BE26" s="1">
-        <v>21.087086</v>
+        <v>21.087085999999999</v>
       </c>
       <c r="BF26" s="1">
-        <v>1043.720000</v>
+        <v>1043.72</v>
       </c>
       <c r="BG26" s="1">
-        <v>-194.463000</v>
+        <v>-194.46299999999999</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>75924.856727</v>
+        <v>75924.856727000006</v>
       </c>
       <c r="BJ26" s="1">
-        <v>21.090238</v>
+        <v>21.090237999999999</v>
       </c>
       <c r="BK26" s="1">
-        <v>1110.440000</v>
+        <v>1110.44</v>
       </c>
       <c r="BL26" s="1">
-        <v>-308.943000</v>
+        <v>-308.94299999999998</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>75936.368377</v>
+        <v>75936.368377000006</v>
       </c>
       <c r="BO26" s="1">
-        <v>21.093436</v>
+        <v>21.093436000000001</v>
       </c>
       <c r="BP26" s="1">
-        <v>1218.380000</v>
+        <v>1218.3800000000001</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-488.281000</v>
+        <v>-488.28100000000001</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>75947.482233</v>
+        <v>75947.482233000002</v>
       </c>
       <c r="BT26" s="1">
-        <v>21.096523</v>
+        <v>21.096523000000001</v>
       </c>
       <c r="BU26" s="1">
-        <v>1339.050000</v>
+        <v>1339.05</v>
       </c>
       <c r="BV26" s="1">
-        <v>-683.809000</v>
+        <v>-683.80899999999997</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>75958.290593</v>
+        <v>75958.290592999998</v>
       </c>
       <c r="BY26" s="1">
         <v>21.099525</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1473.350000</v>
+        <v>1473.35</v>
       </c>
       <c r="CA26" s="1">
-        <v>-892.095000</v>
+        <v>-892.09500000000003</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>75971.682569</v>
+        <v>75971.682568999997</v>
       </c>
       <c r="CD26" s="1">
-        <v>21.103245</v>
+        <v>21.103245000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1822.660000</v>
+        <v>1822.66</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1383.760000</v>
+        <v>-1383.76</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>